--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Blank-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Blank-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91353C-C9E8-B24E-922A-CC5CD03414D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="434">
   <si>
     <t>Region</t>
   </si>
@@ -362,9 +363,6 @@
   </si>
   <si>
     <t>LBR Name</t>
-  </si>
-  <si>
-    <t>Shape(100Mbps|400Mbps|8000Mbps)</t>
   </si>
   <si>
     <t>LBR Subnets</t>
@@ -5332,15 +5330,24 @@
        DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
        DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
   </si>
+  <si>
+    <t>Shape(100Mbps|400Mbps|8000Mbps|flexible)</t>
+  </si>
+  <si>
+    <t>Minimum Bandwidth In Mbps (Flexible shapes only)</t>
+  </si>
+  <si>
+    <t>Maximum Bandwidth In Mbps (Flexible shapes only)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6020,6 +6027,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6082,32 +6115,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7818,6 +7825,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7853,6 +7877,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8028,22 +8069,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="167.1796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="167.1640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -8053,59 +8094,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="38" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="38" customWidth="1"/>
     <col min="17" max="17" width="10" style="38" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-    </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="59.5" customHeight="1">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+    </row>
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8158,10 +8199,10 @@
         <v>16</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="36" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -8173,15 +8214,15 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1">
+    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -8193,15 +8234,15 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1">
+    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -8213,15 +8254,15 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1">
+    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -8240,7 +8281,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1">
+    <row r="7" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -8252,15 +8293,15 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
       <c r="R7" s="35"/>
     </row>
-    <row r="8" spans="1:18" s="36" customFormat="1">
+    <row r="8" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -8272,15 +8313,15 @@
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" s="36" customFormat="1">
+    <row r="9" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -8292,15 +8333,15 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" s="36" customFormat="1">
+    <row r="10" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -8312,15 +8353,15 @@
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="36" customFormat="1">
+    <row r="11" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -8332,15 +8373,15 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="36" customFormat="1">
+    <row r="12" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8352,15 +8393,15 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" s="36" customFormat="1"/>
+    <row r="13" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
@@ -8372,44 +8413,44 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.36328125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="38"/>
+    <col min="1" max="1" width="8.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1">
+    <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8417,32 +8458,32 @@
         <v>4</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>423</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>424</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8455,7 +8496,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -8468,7 +8509,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8481,7 +8522,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="39"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -8494,7 +8535,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8507,7 +8548,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -8520,7 +8561,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8533,7 +8574,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -8546,7 +8587,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8559,7 +8600,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -8572,7 +8613,7 @@
       <c r="J12" s="37"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8585,7 +8626,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -8598,7 +8639,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="1:11" ht="58" customHeight="1">
+    <row r="15" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8611,7 +8652,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" ht="58" customHeight="1">
+    <row r="16" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -8624,7 +8665,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" ht="58" customHeight="1">
+    <row r="17" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8637,7 +8678,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="29" customHeight="1">
+    <row r="18" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -8650,7 +8691,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1">
+    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8663,7 +8704,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1">
+    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -8676,7 +8717,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="1:11" ht="58" customHeight="1">
+    <row r="21" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -8689,7 +8730,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1">
+    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -8702,7 +8743,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" ht="58" customHeight="1">
+    <row r="23" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8715,7 +8756,7 @@
       <c r="J23" s="37"/>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="1:11" ht="58" customHeight="1">
+    <row r="24" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -8728,7 +8769,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11" ht="58" customHeight="1">
+    <row r="25" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8741,7 +8782,7 @@
       <c r="J25" s="37"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" ht="58" customHeight="1">
+    <row r="26" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -8754,7 +8795,7 @@
       <c r="J26" s="37"/>
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="1:11" ht="58" customHeight="1">
+    <row r="27" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8767,7 +8808,7 @@
       <c r="J27" s="37"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:11" ht="58" customHeight="1">
+    <row r="28" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8780,7 +8821,7 @@
       <c r="J28" s="37"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" ht="58" customHeight="1">
+    <row r="29" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8793,7 +8834,7 @@
       <c r="J29" s="37"/>
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="1:11" ht="58" customHeight="1">
+    <row r="30" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -8806,7 +8847,7 @@
       <c r="J30" s="37"/>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11" ht="58" customHeight="1">
+    <row r="31" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -8819,7 +8860,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11" ht="58" customHeight="1">
+    <row r="32" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -8832,7 +8873,7 @@
       <c r="J32" s="37"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1">
+    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -8845,7 +8886,7 @@
       <c r="J33" s="37"/>
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="1:11" ht="58" customHeight="1">
+    <row r="34" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -8858,7 +8899,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="1:11" ht="58" customHeight="1">
+    <row r="35" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -8871,7 +8912,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1">
+    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -8884,7 +8925,7 @@
       <c r="J36" s="37"/>
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="1:11" ht="58" customHeight="1">
+    <row r="37" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -8897,7 +8938,7 @@
       <c r="J37" s="37"/>
       <c r="K37" s="39"/>
     </row>
-    <row r="38" spans="1:11" ht="58" customHeight="1">
+    <row r="38" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8910,7 +8951,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" ht="58" customHeight="1">
+    <row r="39" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8923,7 +8964,7 @@
       <c r="J39" s="37"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" ht="58" customHeight="1">
+    <row r="40" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -8936,7 +8977,7 @@
       <c r="J40" s="37"/>
       <c r="K40" s="39"/>
     </row>
-    <row r="41" spans="1:11" ht="58" customHeight="1">
+    <row r="41" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -8949,7 +8990,7 @@
       <c r="J41" s="37"/>
       <c r="K41" s="39"/>
     </row>
-    <row r="42" spans="1:11" ht="58" customHeight="1">
+    <row r="42" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -8962,7 +9003,7 @@
       <c r="J42" s="37"/>
       <c r="K42" s="39"/>
     </row>
-    <row r="43" spans="1:11" ht="58" customHeight="1">
+    <row r="43" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -8975,7 +9016,7 @@
       <c r="J43" s="37"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" ht="58" customHeight="1">
+    <row r="44" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -8988,7 +9029,7 @@
       <c r="J44" s="37"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" ht="58" customHeight="1">
+    <row r="45" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -9001,7 +9042,7 @@
       <c r="J45" s="37"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" ht="58" customHeight="1">
+    <row r="46" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -9014,7 +9055,7 @@
       <c r="J46" s="37"/>
       <c r="K46" s="39"/>
     </row>
-    <row r="47" spans="1:11" ht="58" customHeight="1">
+    <row r="47" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -9027,7 +9068,7 @@
       <c r="J47" s="37"/>
       <c r="K47" s="39"/>
     </row>
-    <row r="48" spans="1:11" ht="58" customHeight="1">
+    <row r="48" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -9040,7 +9081,7 @@
       <c r="J48" s="37"/>
       <c r="K48" s="39"/>
     </row>
-    <row r="49" spans="1:11" ht="58" customHeight="1">
+    <row r="49" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -9053,7 +9094,7 @@
       <c r="J49" s="37"/>
       <c r="K49" s="39"/>
     </row>
-    <row r="50" spans="1:11" ht="58" customHeight="1">
+    <row r="50" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -9066,7 +9107,7 @@
       <c r="J50" s="37"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" ht="58" customHeight="1">
+    <row r="51" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -9079,7 +9120,7 @@
       <c r="J51" s="37"/>
       <c r="K51" s="39"/>
     </row>
-    <row r="52" spans="1:11" ht="58" customHeight="1">
+    <row r="52" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -9092,7 +9133,7 @@
       <c r="J52" s="37"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="1:11" ht="58" customHeight="1">
+    <row r="53" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -9105,7 +9146,7 @@
       <c r="J53" s="37"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="1:11" ht="58" customHeight="1">
+    <row r="54" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -9118,7 +9159,7 @@
       <c r="J54" s="37"/>
       <c r="K54" s="39"/>
     </row>
-    <row r="55" spans="1:11" ht="58" customHeight="1">
+    <row r="55" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -9131,7 +9172,7 @@
       <c r="J55" s="37"/>
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="1:11" ht="58" customHeight="1">
+    <row r="56" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -9144,7 +9185,7 @@
       <c r="J56" s="37"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" ht="58" customHeight="1">
+    <row r="57" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -9157,7 +9198,7 @@
       <c r="J57" s="37"/>
       <c r="K57" s="39"/>
     </row>
-    <row r="58" spans="1:11" ht="58" customHeight="1">
+    <row r="58" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -9170,7 +9211,7 @@
       <c r="J58" s="37"/>
       <c r="K58" s="39"/>
     </row>
-    <row r="59" spans="1:11" ht="58" customHeight="1">
+    <row r="59" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -9183,7 +9224,7 @@
       <c r="J59" s="37"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" ht="58" customHeight="1">
+    <row r="60" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -9196,7 +9237,7 @@
       <c r="J60" s="37"/>
       <c r="K60" s="39"/>
     </row>
-    <row r="61" spans="1:11" ht="58" customHeight="1">
+    <row r="61" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -9209,7 +9250,7 @@
       <c r="J61" s="37"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" ht="58" customHeight="1">
+    <row r="62" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -9222,7 +9263,7 @@
       <c r="J62" s="37"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" ht="58" customHeight="1">
+    <row r="63" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -9235,7 +9276,7 @@
       <c r="J63" s="37"/>
       <c r="K63" s="39"/>
     </row>
-    <row r="64" spans="1:11" ht="58" customHeight="1">
+    <row r="64" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -9248,7 +9289,7 @@
       <c r="J64" s="37"/>
       <c r="K64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="58" customHeight="1">
+    <row r="65" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -9261,7 +9302,7 @@
       <c r="J65" s="37"/>
       <c r="K65" s="39"/>
     </row>
-    <row r="66" spans="1:11" ht="58" customHeight="1">
+    <row r="66" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -9274,7 +9315,7 @@
       <c r="J66" s="37"/>
       <c r="K66" s="39"/>
     </row>
-    <row r="67" spans="1:11" ht="58" customHeight="1">
+    <row r="67" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
@@ -9287,7 +9328,7 @@
       <c r="J67" s="37"/>
       <c r="K67" s="39"/>
     </row>
-    <row r="68" spans="1:11" ht="58" customHeight="1">
+    <row r="68" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -9300,7 +9341,7 @@
       <c r="J68" s="37"/>
       <c r="K68" s="39"/>
     </row>
-    <row r="69" spans="1:11" ht="58" customHeight="1">
+    <row r="69" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="37"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -9313,7 +9354,7 @@
       <c r="J69" s="37"/>
       <c r="K69" s="39"/>
     </row>
-    <row r="70" spans="1:11" ht="58" customHeight="1">
+    <row r="70" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -9326,7 +9367,7 @@
       <c r="J70" s="37"/>
       <c r="K70" s="39"/>
     </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1">
+    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
@@ -9339,7 +9380,7 @@
       <c r="J71" s="37"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" ht="58" customHeight="1">
+    <row r="72" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
@@ -9352,7 +9393,7 @@
       <c r="J72" s="37"/>
       <c r="K72" s="39"/>
     </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1">
+    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -9365,7 +9406,7 @@
       <c r="J73" s="37"/>
       <c r="K73" s="39"/>
     </row>
-    <row r="74" spans="1:11" ht="58" customHeight="1">
+    <row r="74" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -9378,7 +9419,7 @@
       <c r="J74" s="37"/>
       <c r="K74" s="39"/>
     </row>
-    <row r="75" spans="1:11" ht="58" customHeight="1">
+    <row r="75" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -9391,7 +9432,7 @@
       <c r="J75" s="37"/>
       <c r="K75" s="39"/>
     </row>
-    <row r="76" spans="1:11" ht="58" customHeight="1">
+    <row r="76" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
@@ -9404,7 +9445,7 @@
       <c r="J76" s="37"/>
       <c r="K76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="58" customHeight="1">
+    <row r="77" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -9417,7 +9458,7 @@
       <c r="J77" s="37"/>
       <c r="K77" s="39"/>
     </row>
-    <row r="78" spans="1:11" ht="58" customHeight="1">
+    <row r="78" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -9430,7 +9471,7 @@
       <c r="J78" s="37"/>
       <c r="K78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="58" customHeight="1">
+    <row r="79" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -9443,7 +9484,7 @@
       <c r="J79" s="37"/>
       <c r="K79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="58" customHeight="1">
+    <row r="80" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="37"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9456,7 +9497,7 @@
       <c r="J80" s="37"/>
       <c r="K80" s="39"/>
     </row>
-    <row r="81" spans="1:11" ht="58" customHeight="1">
+    <row r="81" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -9469,7 +9510,7 @@
       <c r="J81" s="37"/>
       <c r="K81" s="39"/>
     </row>
-    <row r="82" spans="1:11" ht="58" customHeight="1">
+    <row r="82" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -9482,7 +9523,7 @@
       <c r="J82" s="37"/>
       <c r="K82" s="39"/>
     </row>
-    <row r="83" spans="1:11" ht="58" customHeight="1">
+    <row r="83" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -9495,7 +9536,7 @@
       <c r="J83" s="37"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:11" ht="58" customHeight="1">
+    <row r="84" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -9508,7 +9549,7 @@
       <c r="J84" s="37"/>
       <c r="K84" s="39"/>
     </row>
-    <row r="85" spans="1:11" ht="58" customHeight="1">
+    <row r="85" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
@@ -9521,7 +9562,7 @@
       <c r="J85" s="37"/>
       <c r="K85" s="39"/>
     </row>
-    <row r="86" spans="1:11" ht="58" customHeight="1">
+    <row r="86" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -9534,7 +9575,7 @@
       <c r="J86" s="37"/>
       <c r="K86" s="39"/>
     </row>
-    <row r="87" spans="1:11" ht="58" customHeight="1">
+    <row r="87" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -9547,7 +9588,7 @@
       <c r="J87" s="37"/>
       <c r="K87" s="39"/>
     </row>
-    <row r="88" spans="1:11" ht="58" customHeight="1">
+    <row r="88" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -9560,7 +9601,7 @@
       <c r="J88" s="37"/>
       <c r="K88" s="39"/>
     </row>
-    <row r="89" spans="1:11" ht="58" customHeight="1">
+    <row r="89" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -9573,7 +9614,7 @@
       <c r="J89" s="37"/>
       <c r="K89" s="39"/>
     </row>
-    <row r="90" spans="1:11" ht="58" customHeight="1">
+    <row r="90" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
@@ -9586,7 +9627,7 @@
       <c r="J90" s="37"/>
       <c r="K90" s="39"/>
     </row>
-    <row r="91" spans="1:11" ht="58" customHeight="1">
+    <row r="91" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -9599,7 +9640,7 @@
       <c r="J91" s="37"/>
       <c r="K91" s="39"/>
     </row>
-    <row r="92" spans="1:11" ht="58" customHeight="1">
+    <row r="92" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -9612,7 +9653,7 @@
       <c r="J92" s="37"/>
       <c r="K92" s="39"/>
     </row>
-    <row r="93" spans="1:11" ht="58" customHeight="1">
+    <row r="93" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -9625,7 +9666,7 @@
       <c r="J93" s="37"/>
       <c r="K93" s="39"/>
     </row>
-    <row r="94" spans="1:11" ht="58" customHeight="1">
+    <row r="94" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
@@ -9638,7 +9679,7 @@
       <c r="J94" s="37"/>
       <c r="K94" s="39"/>
     </row>
-    <row r="95" spans="1:11" ht="58" customHeight="1">
+    <row r="95" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -9651,7 +9692,7 @@
       <c r="J95" s="37"/>
       <c r="K95" s="39"/>
     </row>
-    <row r="96" spans="1:11" ht="58" customHeight="1">
+    <row r="96" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -9664,7 +9705,7 @@
       <c r="J96" s="37"/>
       <c r="K96" s="39"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="37"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -9677,7 +9718,7 @@
       <c r="J97" s="37"/>
       <c r="K97" s="39"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -9690,7 +9731,7 @@
       <c r="J98" s="37"/>
       <c r="K98" s="39"/>
     </row>
-    <row r="99" spans="1:11" ht="29" customHeight="1">
+    <row r="99" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="37"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -9703,7 +9744,7 @@
       <c r="J99" s="37"/>
       <c r="K99" s="39"/>
     </row>
-    <row r="100" spans="1:11" ht="29" customHeight="1">
+    <row r="100" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -9716,7 +9757,7 @@
       <c r="J100" s="37"/>
       <c r="K100" s="39"/>
     </row>
-    <row r="101" spans="1:11" ht="29" customHeight="1">
+    <row r="101" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -9729,7 +9770,7 @@
       <c r="J101" s="37"/>
       <c r="K101" s="39"/>
     </row>
-    <row r="102" spans="1:11" ht="29" customHeight="1">
+    <row r="102" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -9742,7 +9783,7 @@
       <c r="J102" s="37"/>
       <c r="K102" s="39"/>
     </row>
-    <row r="103" spans="1:11" ht="29" customHeight="1">
+    <row r="103" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -9755,7 +9796,7 @@
       <c r="J103" s="37"/>
       <c r="K103" s="39"/>
     </row>
-    <row r="104" spans="1:11" ht="29" customHeight="1">
+    <row r="104" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -9768,7 +9809,7 @@
       <c r="J104" s="37"/>
       <c r="K104" s="39"/>
     </row>
-    <row r="105" spans="1:11" ht="29" customHeight="1">
+    <row r="105" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -9781,7 +9822,7 @@
       <c r="J105" s="37"/>
       <c r="K105" s="39"/>
     </row>
-    <row r="106" spans="1:11" ht="29" customHeight="1">
+    <row r="106" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -9794,7 +9835,7 @@
       <c r="J106" s="37"/>
       <c r="K106" s="39"/>
     </row>
-    <row r="107" spans="1:11" ht="29" customHeight="1">
+    <row r="107" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -9807,7 +9848,7 @@
       <c r="J107" s="37"/>
       <c r="K107" s="39"/>
     </row>
-    <row r="108" spans="1:11" ht="29" customHeight="1">
+    <row r="108" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -9820,7 +9861,7 @@
       <c r="J108" s="37"/>
       <c r="K108" s="39"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -9833,7 +9874,7 @@
       <c r="J109" s="37"/>
       <c r="K109" s="39"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -9846,7 +9887,7 @@
       <c r="J110" s="37"/>
       <c r="K110" s="39"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -9859,7 +9900,7 @@
       <c r="J111" s="37"/>
       <c r="K111" s="39"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -9872,7 +9913,7 @@
       <c r="J112" s="37"/>
       <c r="K112" s="39"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -9885,7 +9926,7 @@
       <c r="J113" s="37"/>
       <c r="K113" s="39"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -9898,7 +9939,7 @@
       <c r="J114" s="37"/>
       <c r="K114" s="39"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -9911,7 +9952,7 @@
       <c r="J115" s="37"/>
       <c r="K115" s="39"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -9924,7 +9965,7 @@
       <c r="J116" s="37"/>
       <c r="K116" s="39"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -9937,7 +9978,7 @@
       <c r="J117" s="37"/>
       <c r="K117" s="39"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -9959,40 +10000,40 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="16" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -10018,7 +10059,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -10031,47 +10072,47 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" style="38" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-    </row>
-    <row r="2" spans="1:17">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -10121,7 +10162,7 @@
         <v>42</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -10133,55 +10174,55 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="38" customWidth="1"/>
     <col min="11" max="11" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-    </row>
-    <row r="2" spans="1:20">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10237,13 +10278,13 @@
         <v>42</v>
       </c>
       <c r="S2" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="T2" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="T2" s="56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="36" customFormat="1" ht="29" customHeight="1">
+    </row>
+    <row r="3" spans="1:20" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -10265,7 +10306,7 @@
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1">
+    <row r="4" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -10287,7 +10328,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
     </row>
-    <row r="5" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1">
+    <row r="5" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -10309,7 +10350,7 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
     </row>
-    <row r="6" spans="1:20" s="36" customFormat="1">
+    <row r="6" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -10331,7 +10372,7 @@
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
     </row>
-    <row r="7" spans="1:20" s="36" customFormat="1">
+    <row r="7" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10353,7 +10394,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
     </row>
-    <row r="8" spans="1:20" s="36" customFormat="1">
+    <row r="8" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -10375,7 +10416,7 @@
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
     </row>
-    <row r="9" spans="1:20" s="36" customFormat="1">
+    <row r="9" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -10397,7 +10438,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
-    <row r="10" spans="1:20" s="36" customFormat="1">
+    <row r="10" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -10419,7 +10460,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
     </row>
-    <row r="11" spans="1:20" s="36" customFormat="1">
+    <row r="11" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -10441,7 +10482,7 @@
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
     </row>
-    <row r="12" spans="1:20" s="36" customFormat="1">
+    <row r="12" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -10463,7 +10504,7 @@
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
     </row>
-    <row r="13" spans="1:20" s="36" customFormat="1">
+    <row r="13" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -10485,7 +10526,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
     </row>
-    <row r="14" spans="1:20" s="36" customFormat="1">
+    <row r="14" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -10507,7 +10548,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
     </row>
-    <row r="15" spans="1:20" s="36" customFormat="1">
+    <row r="15" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -10529,7 +10570,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
     </row>
-    <row r="16" spans="1:20" s="36" customFormat="1">
+    <row r="16" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -10551,7 +10592,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
     </row>
-    <row r="17" spans="1:20" s="36" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:20" s="36" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="34"/>
@@ -10560,7 +10601,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="113"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
@@ -10573,7 +10614,7 @@
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
+    <row r="18" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -10585,15 +10626,15 @@
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
       <c r="R18" s="35"/>
     </row>
-    <row r="19" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
+    <row r="19" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -10605,15 +10646,15 @@
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
       <c r="R19" s="35"/>
     </row>
-    <row r="20" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
+    <row r="20" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -10625,15 +10666,15 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
+    <row r="21" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -10645,43 +10686,43 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
       <c r="R21" s="35"/>
     </row>
-    <row r="22" spans="1:20" s="36" customFormat="1"/>
-    <row r="23" spans="1:20" s="36" customFormat="1"/>
-    <row r="24" spans="1:20" s="36" customFormat="1"/>
-    <row r="25" spans="1:20" s="36" customFormat="1"/>
-    <row r="26" spans="1:20" s="36" customFormat="1"/>
-    <row r="27" spans="1:20" s="36" customFormat="1"/>
-    <row r="28" spans="1:20" s="36" customFormat="1"/>
-    <row r="29" spans="1:20" s="36" customFormat="1"/>
-    <row r="30" spans="1:20" s="36" customFormat="1"/>
-    <row r="31" spans="1:20" s="36" customFormat="1"/>
-    <row r="32" spans="1:20" s="36" customFormat="1"/>
-    <row r="33" s="36" customFormat="1"/>
-    <row r="34" s="36" customFormat="1"/>
-    <row r="35" s="36" customFormat="1"/>
-    <row r="36" s="36" customFormat="1"/>
-    <row r="37" s="36" customFormat="1"/>
-    <row r="38" s="36" customFormat="1"/>
-    <row r="39" s="36" customFormat="1"/>
-    <row r="40" s="36" customFormat="1"/>
-    <row r="41" s="36" customFormat="1"/>
-    <row r="42" s="36" customFormat="1"/>
-    <row r="43" s="36" customFormat="1"/>
-    <row r="44" s="36" customFormat="1"/>
-    <row r="45" s="36" customFormat="1"/>
-    <row r="46" s="36" customFormat="1"/>
-    <row r="47" s="36" customFormat="1"/>
-    <row r="48" s="36" customFormat="1"/>
-    <row r="49" s="36" customFormat="1"/>
-    <row r="50" s="36" customFormat="1"/>
+    <row r="22" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
@@ -10692,35 +10733,35 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-    </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="28.75" customHeight="1">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10740,10 +10781,10 @@
         <v>61</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -10752,7 +10793,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10761,7 +10802,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10770,7 +10811,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10788,56 +10829,56 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="38" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="117" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="88"/>
-    </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="52.25" customHeight="1">
+    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+    </row>
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10848,7 +10889,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>61</v>
@@ -10863,7 +10904,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>60</v>
@@ -10875,7 +10916,7 @@
         <v>65</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>66</v>
@@ -10884,28 +10925,28 @@
         <v>67</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="36" customFormat="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1">
+    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -10925,7 +10966,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1">
+    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -10945,7 +10986,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1">
+    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -10965,7 +11006,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1">
+    <row r="7" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -10996,41 +11037,41 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="23" style="38" customWidth="1"/>
     <col min="3" max="3" width="17" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>393</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
-    </row>
-    <row r="2" spans="1:10" s="45" customFormat="1" ht="28.75" customHeight="1">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -11056,13 +11097,13 @@
         <v>65</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="36" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="34"/>
@@ -11074,7 +11115,7 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" s="36" customFormat="1">
+    <row r="4" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -11086,7 +11127,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1">
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -11108,57 +11149,57 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.453125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="38" customWidth="1"/>
     <col min="10" max="10" width="16" style="38" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" style="38" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="38" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="38" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -11208,10 +11249,10 @@
         <v>66</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -11230,7 +11271,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="39"/>
       <c r="C4" s="30"/>
@@ -11249,7 +11290,7 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="39"/>
       <c r="C5" s="30"/>
@@ -11268,7 +11309,7 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -11286,7 +11327,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="39"/>
       <c r="C7" s="30"/>
@@ -11305,7 +11346,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="39"/>
       <c r="C8" s="30"/>
@@ -11324,7 +11365,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="39"/>
       <c r="C9" s="30"/>
@@ -11343,7 +11384,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="39"/>
       <c r="C10" s="30"/>
@@ -11373,48 +11414,52 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="25" style="38" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" style="38" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="38" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="19" style="38" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="25" style="38" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="38" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.5" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1">
+    <row r="1" spans="1:18" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -11425,82 +11470,92 @@
         <v>85</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="H2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="21" t="s">
+      <c r="P2" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1">
+      <c r="R2" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="39"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" ht="65.5" customHeight="1">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+    </row>
+    <row r="4" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1">
+      <c r="O4" s="37"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11508,37 +11563,41 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
-      <c r="H5" s="37"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="37"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1">
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11546,32 +11605,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -11585,94 +11644,94 @@
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" ht="43.5" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="4" spans="1:5" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" s="38" customFormat="1" ht="45" customHeight="1">
+    <row r="5" spans="1:5" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" s="38" customFormat="1" ht="28.5" customHeight="1">
+    <row r="6" spans="1:5" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" s="36" customFormat="1">
+    <row r="7" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" s="36" customFormat="1">
+    <row r="8" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:5" s="36" customFormat="1">
+    <row r="10" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:5" s="36" customFormat="1">
+    <row r="11" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" s="36" customFormat="1">
+    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5" s="36" customFormat="1">
+    <row r="13" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1">
+    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:5" s="36" customFormat="1">
+    <row r="15" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -11689,56 +11748,56 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="11" style="38" customWidth="1"/>
-    <col min="4" max="5" width="10.81640625" style="38" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="38" customWidth="1"/>
     <col min="6" max="6" width="18" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="38" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="38" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="38" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="38" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="38" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="88"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="98"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -11749,61 +11808,61 @@
         <v>85</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="N2" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="Q2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="R2" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="U2" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -11826,7 +11885,7 @@
       <c r="T3" s="39"/>
       <c r="U3" s="39"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -11849,7 +11908,7 @@
       <c r="T4" s="39"/>
       <c r="U4" s="39"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11872,7 +11931,7 @@
       <c r="T5" s="39"/>
       <c r="U5" s="39"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11905,56 +11964,56 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="38" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="38" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="38" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="21.1796875" style="38" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="38" customWidth="1"/>
+    <col min="14" max="16" width="13.83203125" style="38" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -11962,58 +12021,58 @@
         <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12034,7 +12093,7 @@
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12055,7 +12114,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12076,7 +12135,7 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12097,7 +12156,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -12118,7 +12177,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -12139,7 +12198,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -12160,7 +12219,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -12181,7 +12240,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -12202,7 +12261,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -12223,7 +12282,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -12244,7 +12303,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -12265,7 +12324,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -12286,7 +12345,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -12307,7 +12366,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -12328,7 +12387,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -12349,7 +12408,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -12370,7 +12429,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -12391,7 +12450,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -12412,7 +12471,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -12433,7 +12492,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -12460,57 +12519,57 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1400-000001000000}">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1400-000002000000}">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1400-000003000000}">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1400-000004000000}">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1400-000005000000}">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2"/>
+    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1400-000006000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -12518,19 +12577,19 @@
         <v>85</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12538,7 +12597,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12546,7 +12605,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12554,7 +12613,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12562,7 +12621,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -12575,7 +12634,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -12584,47 +12643,47 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.453125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="38" customWidth="1"/>
     <col min="9" max="9" width="15" style="38" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="38" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -12632,49 +12691,49 @@
         <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="M2" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="P2" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12692,7 +12751,7 @@
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12710,7 +12769,7 @@
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12728,7 +12787,7 @@
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12756,41 +12815,41 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="38"/>
+    <col min="3" max="3" width="16.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="38"/>
     <col min="8" max="8" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="38" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="38"/>
+    <col min="9" max="9" width="13.83203125" style="38" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="105" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -12798,28 +12857,28 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F2" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>399</v>
-      </c>
       <c r="I2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="62"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12830,7 +12889,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12842,7 +12901,7 @@
       <c r="I4" s="57"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12864,67 +12923,67 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="14" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="38" customWidth="1"/>
     <col min="9" max="9" width="13" style="38" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="69" customWidth="1"/>
-    <col min="12" max="13" width="20.453125" style="38"/>
-    <col min="14" max="14" width="20.453125" style="3"/>
-    <col min="15" max="17" width="20.453125" style="38"/>
+    <col min="10" max="10" width="16.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="69" customWidth="1"/>
+    <col min="12" max="13" width="20.5" style="38"/>
+    <col min="14" max="14" width="20.5" style="3"/>
+    <col min="15" max="17" width="20.5" style="38"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.453125" style="38"/>
-    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
-    <col min="24" max="24" width="20.453125" style="38"/>
-    <col min="25" max="25" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.453125" style="38"/>
+    <col min="19" max="21" width="20.5" style="38"/>
+    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="20.5" style="38"/>
+    <col min="25" max="25" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.5" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
-    </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="43.5">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -12938,67 +12997,67 @@
         <v>59</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="I2" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="K2" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="O2" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="P2" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="Q2" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="R2" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="S2" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="T2" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" s="65" t="s">
+      <c r="W2" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="W2" s="65" t="s">
-        <v>415</v>
-      </c>
       <c r="X2" s="65" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -13024,7 +13083,7 @@
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39"/>
@@ -13050,7 +13109,7 @@
       <c r="W4" s="39"/>
       <c r="X4" s="39"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39"/>
@@ -13081,25 +13140,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1800-000002000000}">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1800-000003000000}">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1800-000004000000}">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1800-000005000000}">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1800-000006000000}">
       <formula1>workload_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13109,74 +13168,74 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="69" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="69" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="38" customWidth="1"/>
-    <col min="25" max="25" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="38"/>
+    <col min="27" max="27" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="133.25" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
-    </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="29">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -13190,67 +13249,67 @@
         <v>59</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="K2" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="O2" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="P2" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="Q2" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="R2" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="S2" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="T2" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" s="65" t="s">
+      <c r="W2" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="W2" s="65" t="s">
-        <v>415</v>
-      </c>
       <c r="X2" s="71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -13276,7 +13335,7 @@
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39"/>
@@ -13302,7 +13361,7 @@
       <c r="W4" s="39"/>
       <c r="X4" s="37"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39"/>
@@ -13333,28 +13392,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1900-000000000000}">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1900-000001000000}">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000006000000}">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000007000000}">
       <formula1>license_type_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13364,72 +13423,72 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
-    <col min="24" max="25" width="14.453125" style="38" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="38"/>
+    <col min="19" max="19" width="13.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
+    <col min="24" max="25" width="14.5" style="38" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
-    </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="29">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="98"/>
+    </row>
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -13443,67 +13502,67 @@
         <v>59</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I2" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J2" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="K2" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>406</v>
-      </c>
       <c r="M2" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N2" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="P2" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="Q2" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="R2" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="S2" s="65" t="s">
         <v>412</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="T2" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" s="65" t="s">
+      <c r="W2" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="W2" s="65" t="s">
-        <v>415</v>
-      </c>
       <c r="X2" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="75" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="74"/>
       <c r="D3" s="74"/>
@@ -13528,7 +13587,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="62"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -13554,7 +13613,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="37"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="78"/>
       <c r="B5" s="48"/>
       <c r="C5" s="79"/>
@@ -13565,22 +13624,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1A00-000001000000}">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1A00-000002000000}">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1A00-000003000000}">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1A00-000004000000}">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1A00-000005000000}">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13590,55 +13649,55 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>157</v>
-      </c>
       <c r="C2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -13647,18 +13706,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="31">
         <v>302</v>
@@ -13667,18 +13726,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
         <v>159</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
       </c>
       <c r="E4" s="31">
         <v>303</v>
@@ -13687,15 +13746,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="31">
@@ -13705,12 +13764,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="31">
@@ -13718,194 +13777,194 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="31" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1">
-      <c r="B13" s="31" t="s">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1">
-      <c r="B14" s="31" t="s">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1">
-      <c r="B15" s="31" t="s">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1">
-      <c r="B16" s="31" t="s">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B17" s="31" t="s">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B19" s="31" t="s">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B20" s="31" t="s">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B21" s="31" t="s">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B22" s="31" t="s">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B23" s="31" t="s">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B24" s="31" t="s">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B25" s="31" t="s">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B26" s="31" t="s">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B27" s="31" t="s">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B28" s="31" t="s">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B29" s="31" t="s">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B30" s="31" t="s">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B31" s="31" t="s">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B32" s="31" t="s">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B33" s="31" t="s">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B34" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B35" s="31" t="s">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B36" s="31" t="s">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B37" s="31" t="s">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B38" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B39" s="31" t="s">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="31" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1">
-      <c r="B40" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -13915,763 +13974,763 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="38" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="38"/>
+    <col min="3" max="3" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="38" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>237</v>
-      </c>
       <c r="D1" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="H2" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="C3" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F3" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="47" t="s">
+      <c r="C4" s="39" t="s">
         <v>232</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>233</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="I4" s="39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="I6" s="39" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="I10" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="I11" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="I12" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="I13" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="I14" s="39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="39" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="I15" s="39" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="39" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="39" t="s">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="39" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="39" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="39" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
-      <c r="I19" s="39" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="39" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
-      <c r="I20" s="39" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="39" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
-      <c r="I21" s="39" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
-      <c r="I22" s="39" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="39" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="9:9">
-      <c r="I23" s="39" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="39" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
-      <c r="I24" s="39" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="39" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
-      <c r="I25" s="39" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="39" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
-      <c r="I26" s="39" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
-      <c r="I27" s="39" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
-      <c r="I28" s="39" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
-      <c r="I29" s="39" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="9:9">
-      <c r="I30" s="39" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="39" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="9:9">
-      <c r="I31" s="39" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
-      <c r="I32" s="39" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="39" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="39" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="39" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="39" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="39" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="39" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="39" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="39" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="39" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="39" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="39" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="39" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="39" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="39" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="39" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
-      <c r="I44" s="39" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="39" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
-      <c r="I45" s="39" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="39" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
-      <c r="I46" s="39" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="39" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="39" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="39" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="9:9">
-      <c r="I48" s="39" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="39" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="39" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="39" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="39" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="39" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="39" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="39" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="39" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="39" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="39" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="39" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="39" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="39" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="39" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="39" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="39" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="39" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="39" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="39" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="39" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="39" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="39" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="39" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="39" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="39" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
-      <c r="I66" s="39" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="67" spans="9:9">
-      <c r="I67" s="39" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="39" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="68" spans="9:9">
-      <c r="I68" s="39" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="39" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="9:9">
-      <c r="I69" s="39" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="9:9">
-      <c r="I70" s="39" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="39" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
-      <c r="I71" s="39" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="9:9">
-      <c r="I72" s="39" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="39" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
-      <c r="I73" s="39" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="9:9">
-      <c r="I74" s="39" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
-      <c r="I75" s="39" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="76" spans="9:9">
-      <c r="I76" s="39" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="9:9">
-      <c r="I77" s="39" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="9:9">
-      <c r="I78" s="39" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="39" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="9:9">
-      <c r="I79" s="39" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="9:9">
-      <c r="I80" s="39" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="39" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="39" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
-      <c r="I82" s="39" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
-      <c r="I83" s="39" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="39" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="39" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="9:9">
-      <c r="I85" s="39" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="39" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="9:9">
-      <c r="I86" s="39" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="39" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="9:9">
-      <c r="I87" s="39" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="39" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="9:9">
-      <c r="I88" s="39" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="9:9">
-      <c r="I89" s="39" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="90" spans="9:9">
-      <c r="I90" s="39" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="39" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
-      <c r="I91" s="39" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="39" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="9:9">
-      <c r="I92" s="39" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="39" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="39" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="39" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="39" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="9:9">
-      <c r="I95" s="39" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
-      <c r="I96" s="39" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="39" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="9:9">
-      <c r="I97" s="39" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I98" s="39" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="9:9">
-      <c r="I98" s="39" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="39" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="9:9">
-      <c r="I99" s="39" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="9:9">
-      <c r="I100" s="39" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="39" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="39" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="9:9">
-      <c r="I102" s="39" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="39" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="9:9">
-      <c r="I103" s="39" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="39" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I105" s="39" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="39" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="39" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="39" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="39" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="39" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9">
-      <c r="I108" s="39" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -14681,32 +14740,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -14717,69 +14776,69 @@
         <v>2</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="38" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1">
+    <row r="4" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:5" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" s="38" customFormat="1">
+    <row r="6" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" s="38" customFormat="1" ht="32.5" customHeight="1">
+    <row r="7" spans="1:5" s="38" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1">
+    <row r="9" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1">
+    <row r="10" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
     </row>
   </sheetData>
@@ -14792,37 +14851,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="38" customWidth="1"/>
+    <col min="6" max="7" width="28.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1">
+    <row r="1" spans="1:8" s="45" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -14845,10 +14904,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="38" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -14858,7 +14917,7 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" s="38" customFormat="1">
+    <row r="4" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -14868,7 +14927,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" s="38" customFormat="1">
+    <row r="5" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -14878,7 +14937,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" s="38" customFormat="1">
+    <row r="6" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -14888,7 +14947,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" s="38" customFormat="1">
+    <row r="7" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -14898,7 +14957,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" s="38" customFormat="1">
+    <row r="8" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -14908,7 +14967,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" s="38" customFormat="1">
+    <row r="9" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -14918,7 +14977,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" s="38" customFormat="1">
+    <row r="10" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -14928,7 +14987,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" s="38" customFormat="1">
+    <row r="11" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -14938,7 +14997,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" s="38" customFormat="1">
+    <row r="12" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -14948,7 +15007,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" s="38" customFormat="1">
+    <row r="13" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -14958,7 +15017,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" s="38" customFormat="1">
+    <row r="14" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -14968,7 +15027,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1">
+    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -14978,7 +15037,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="16" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -14988,7 +15047,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="17" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -14998,7 +15057,7 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="18" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -15008,7 +15067,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="19" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -15018,7 +15077,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="20" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -15028,7 +15087,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="21" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -15038,7 +15097,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" s="38" customFormat="1">
+    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -15048,7 +15107,7 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="23" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -15058,7 +15117,7 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="24" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -15068,7 +15127,7 @@
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="25" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -15078,7 +15137,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="26" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -15088,7 +15147,7 @@
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="27" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -15098,7 +15157,7 @@
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="28" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -15108,7 +15167,7 @@
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" s="38" customFormat="1">
+    <row r="29" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -15118,7 +15177,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
     </row>
-    <row r="30" spans="1:8" s="38" customFormat="1">
+    <row r="30" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -15128,7 +15187,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
     </row>
-    <row r="31" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="31" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -15138,7 +15197,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
     </row>
-    <row r="32" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="32" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -15148,7 +15207,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
     </row>
-    <row r="33" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="33" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -15158,7 +15217,7 @@
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
     </row>
-    <row r="34" spans="1:8" s="38" customFormat="1">
+    <row r="34" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -15168,7 +15227,7 @@
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
     </row>
-    <row r="35" spans="1:8" s="38" customFormat="1">
+    <row r="35" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -15178,7 +15237,7 @@
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
     </row>
-    <row r="36" spans="1:8" s="38" customFormat="1">
+    <row r="36" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -15188,7 +15247,7 @@
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
+    <row r="37" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -15198,7 +15257,7 @@
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
     </row>
-    <row r="38" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="38" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -15208,7 +15267,7 @@
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
     </row>
-    <row r="39" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="39" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -15218,7 +15277,7 @@
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
     </row>
-    <row r="40" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
+    <row r="40" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -15228,7 +15287,7 @@
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
     </row>
-    <row r="41" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
+    <row r="41" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -15238,7 +15297,7 @@
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="42" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -15248,7 +15307,7 @@
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="43" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -15258,7 +15317,7 @@
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
     </row>
-    <row r="44" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="44" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -15268,7 +15327,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
     </row>
-    <row r="45" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="45" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -15278,7 +15337,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
     </row>
-    <row r="46" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="46" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -15288,7 +15347,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
     </row>
-    <row r="47" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="47" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -15298,7 +15357,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
     </row>
-    <row r="48" spans="1:8" s="38" customFormat="1">
+    <row r="48" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -15308,7 +15367,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
     </row>
-    <row r="49" spans="1:8" s="38" customFormat="1">
+    <row r="49" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -15318,7 +15377,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="1:8" s="38" customFormat="1">
+    <row r="50" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -15328,7 +15387,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
     </row>
-    <row r="51" spans="1:8" s="38" customFormat="1">
+    <row r="51" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -15338,7 +15397,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
     </row>
-    <row r="52" spans="1:8" s="38" customFormat="1">
+    <row r="52" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -15348,7 +15407,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
     </row>
-    <row r="53" spans="1:8" s="38" customFormat="1">
+    <row r="53" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -15358,7 +15417,7 @@
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
     </row>
-    <row r="54" spans="1:8" s="38" customFormat="1">
+    <row r="54" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -15368,7 +15427,7 @@
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
     </row>
-    <row r="55" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="55" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -15378,7 +15437,7 @@
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
     </row>
-    <row r="56" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="56" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -15388,7 +15447,7 @@
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
     </row>
-    <row r="57" spans="1:8" s="38" customFormat="1">
+    <row r="57" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -15398,7 +15457,7 @@
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
     </row>
-    <row r="58" spans="1:8" s="38" customFormat="1">
+    <row r="58" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -15408,7 +15467,7 @@
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
     </row>
-    <row r="59" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="59" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -15418,7 +15477,7 @@
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
     </row>
-    <row r="60" spans="1:8" s="38" customFormat="1">
+    <row r="60" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -15428,7 +15487,7 @@
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
     </row>
-    <row r="61" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="61" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -15438,7 +15497,7 @@
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
     </row>
-    <row r="62" spans="1:8" s="38" customFormat="1">
+    <row r="62" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -15448,7 +15507,7 @@
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
     </row>
-    <row r="63" spans="1:8" s="38" customFormat="1">
+    <row r="63" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -15458,7 +15517,7 @@
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
     </row>
-    <row r="64" spans="1:8" s="38" customFormat="1">
+    <row r="64" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -15468,7 +15527,7 @@
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
     </row>
-    <row r="65" spans="1:8" s="38" customFormat="1">
+    <row r="65" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -15478,7 +15537,7 @@
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
     </row>
-    <row r="66" spans="1:8" s="38" customFormat="1">
+    <row r="66" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -15488,7 +15547,7 @@
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
     </row>
-    <row r="67" spans="1:8" s="38" customFormat="1">
+    <row r="67" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
@@ -15498,7 +15557,7 @@
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
     </row>
-    <row r="68" spans="1:8" s="38" customFormat="1">
+    <row r="68" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -15508,7 +15567,7 @@
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
     </row>
-    <row r="69" spans="1:8" s="38" customFormat="1">
+    <row r="69" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="37"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -15518,7 +15577,7 @@
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="70" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -15528,7 +15587,7 @@
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="71" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
@@ -15538,7 +15597,7 @@
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="1:8" s="38" customFormat="1" ht="87" customHeight="1">
+    <row r="72" spans="1:8" s="38" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
@@ -15548,7 +15607,7 @@
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="73" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -15558,7 +15617,7 @@
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
     </row>
-    <row r="74" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="74" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -15568,7 +15627,7 @@
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="75" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -15578,7 +15637,7 @@
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
     </row>
-    <row r="76" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="76" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
@@ -15588,7 +15647,7 @@
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
     </row>
-    <row r="77" spans="1:8" s="38" customFormat="1">
+    <row r="77" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -15598,7 +15657,7 @@
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
     </row>
-    <row r="78" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="78" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -15608,7 +15667,7 @@
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
     </row>
-    <row r="79" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="79" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -15618,7 +15677,7 @@
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
     </row>
-    <row r="80" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="80" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="37"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -15628,7 +15687,7 @@
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
     </row>
-    <row r="81" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="81" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -15638,7 +15697,7 @@
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
     </row>
-    <row r="82" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="82" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -15648,7 +15707,7 @@
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
     </row>
-    <row r="83" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="83" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -15658,7 +15717,7 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
     </row>
-    <row r="84" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="84" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -15668,7 +15727,7 @@
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
     </row>
-    <row r="85" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="85" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
@@ -15678,7 +15737,7 @@
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
     </row>
-    <row r="86" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="86" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -15688,7 +15747,7 @@
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
     </row>
-    <row r="87" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="87" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -15698,7 +15757,7 @@
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
     </row>
-    <row r="88" spans="1:8" s="38" customFormat="1">
+    <row r="88" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -15708,7 +15767,7 @@
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
     </row>
-    <row r="89" spans="1:8" s="38" customFormat="1">
+    <row r="89" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -15718,7 +15777,7 @@
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
     </row>
-    <row r="90" spans="1:8" s="38" customFormat="1">
+    <row r="90" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
@@ -15728,7 +15787,7 @@
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
     </row>
-    <row r="91" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
+    <row r="91" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -15738,7 +15797,7 @@
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
     </row>
-    <row r="92" spans="1:8" s="38" customFormat="1">
+    <row r="92" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -15748,7 +15807,7 @@
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
     </row>
-    <row r="93" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="93" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -15758,7 +15817,7 @@
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
     </row>
-    <row r="94" spans="1:8" s="38" customFormat="1">
+    <row r="94" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
@@ -15768,7 +15827,7 @@
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
     </row>
-    <row r="95" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="95" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -15778,7 +15837,7 @@
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
     </row>
-    <row r="96" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="96" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -15788,7 +15847,7 @@
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
     </row>
-    <row r="97" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="97" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="37"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -15798,7 +15857,7 @@
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
     </row>
-    <row r="98" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="98" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -15808,7 +15867,7 @@
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
     </row>
-    <row r="99" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="99" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="37"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -15818,7 +15877,7 @@
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
     </row>
-    <row r="100" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="100" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -15828,7 +15887,7 @@
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" s="38" customFormat="1">
+    <row r="101" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -15838,7 +15897,7 @@
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
     </row>
-    <row r="102" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="102" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -15848,7 +15907,7 @@
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
     </row>
-    <row r="103" spans="1:8" s="38" customFormat="1">
+    <row r="103" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -15858,7 +15917,7 @@
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
     </row>
-    <row r="104" spans="1:8" s="38" customFormat="1">
+    <row r="104" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -15868,7 +15927,7 @@
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
     </row>
-    <row r="105" spans="1:8" s="38" customFormat="1">
+    <row r="105" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -15878,7 +15937,7 @@
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="106" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -15888,7 +15947,7 @@
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
     </row>
-    <row r="107" spans="1:8" s="38" customFormat="1">
+    <row r="107" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -15898,7 +15957,7 @@
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
     </row>
-    <row r="108" spans="1:8" s="38" customFormat="1">
+    <row r="108" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -15908,7 +15967,7 @@
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
     </row>
-    <row r="109" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
+    <row r="109" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -15918,7 +15977,7 @@
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
     </row>
-    <row r="110" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="110" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -15928,7 +15987,7 @@
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
     </row>
-    <row r="111" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="111" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -15938,7 +15997,7 @@
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="112" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -15948,7 +16007,7 @@
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
     </row>
-    <row r="113" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="113" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -15958,7 +16017,7 @@
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
     </row>
-    <row r="114" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="114" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -15968,7 +16027,7 @@
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
     </row>
-    <row r="115" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="115" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -15978,7 +16037,7 @@
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
     </row>
-    <row r="116" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="116" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -15988,7 +16047,7 @@
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
     </row>
-    <row r="117" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="117" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -15998,7 +16057,7 @@
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
     </row>
-    <row r="118" spans="1:8" s="38" customFormat="1">
+    <row r="118" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -16008,7 +16067,7 @@
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
     </row>
-    <row r="119" spans="1:8" s="38" customFormat="1">
+    <row r="119" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="37"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -16018,7 +16077,7 @@
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
     </row>
-    <row r="120" spans="1:8" s="38" customFormat="1">
+    <row r="120" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="37"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
@@ -16028,7 +16087,7 @@
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
     </row>
-    <row r="121" spans="1:8" s="38" customFormat="1">
+    <row r="121" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="37"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
@@ -16038,7 +16097,7 @@
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
     </row>
-    <row r="122" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
+    <row r="122" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="37"/>
       <c r="B122" s="84"/>
       <c r="C122" s="37"/>
@@ -16048,7 +16107,7 @@
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="123" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="37"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
@@ -16058,7 +16117,7 @@
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
     </row>
-    <row r="124" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
+    <row r="124" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="37"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
@@ -16068,7 +16127,7 @@
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
     </row>
-    <row r="125" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="125" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="37"/>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
@@ -16078,7 +16137,7 @@
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="126" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
@@ -16088,7 +16147,7 @@
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
     </row>
-    <row r="127" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="127" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="37"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
@@ -16098,7 +16157,7 @@
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
     </row>
-    <row r="128" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="128" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="37"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
@@ -16108,7 +16167,7 @@
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="129" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="37"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
@@ -16118,7 +16177,7 @@
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
     </row>
-    <row r="130" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="130" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="37"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
@@ -16128,7 +16187,7 @@
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
     </row>
-    <row r="131" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="131" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="37"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -16138,7 +16197,7 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="132" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="37"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -16148,7 +16207,7 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
     </row>
-    <row r="133" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="133" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="37"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
@@ -16158,7 +16217,7 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="134" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
@@ -16168,7 +16227,7 @@
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
     </row>
-    <row r="135" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="135" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
@@ -16178,7 +16237,7 @@
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
     </row>
-    <row r="136" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="136" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -16188,7 +16247,7 @@
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
     </row>
-    <row r="137" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="137" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="37"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
@@ -16198,7 +16257,7 @@
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
     </row>
-    <row r="138" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="138" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
@@ -16208,7 +16267,7 @@
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
     </row>
-    <row r="139" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="139" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
@@ -16218,7 +16277,7 @@
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
     </row>
-    <row r="140" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="140" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="37"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -16228,7 +16287,7 @@
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
     </row>
-    <row r="141" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="141" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="37"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -16238,7 +16297,7 @@
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
     </row>
-    <row r="142" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="142" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
@@ -16248,7 +16307,7 @@
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
     </row>
-    <row r="143" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="143" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="37"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
@@ -16258,7 +16317,7 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
     </row>
-    <row r="144" spans="1:8" s="38" customFormat="1">
+    <row r="144" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="37"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
@@ -16268,7 +16327,7 @@
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
     </row>
-    <row r="145" spans="1:8" s="38" customFormat="1">
+    <row r="145" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="37"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
@@ -16278,7 +16337,7 @@
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
     </row>
-    <row r="146" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="146" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="37"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
@@ -16288,7 +16347,7 @@
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
     </row>
-    <row r="147" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="147" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
@@ -16298,7 +16357,7 @@
       <c r="G147" s="37"/>
       <c r="H147" s="37"/>
     </row>
-    <row r="148" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="148" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="37"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
@@ -16308,7 +16367,7 @@
       <c r="G148" s="37"/>
       <c r="H148" s="37"/>
     </row>
-    <row r="149" spans="1:8" s="38" customFormat="1">
+    <row r="149" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="37"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
@@ -16318,7 +16377,7 @@
       <c r="G149" s="37"/>
       <c r="H149" s="37"/>
     </row>
-    <row r="150" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="150" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -16328,7 +16387,7 @@
       <c r="G150" s="37"/>
       <c r="H150" s="37"/>
     </row>
-    <row r="151" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="151" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="37"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -16338,7 +16397,7 @@
       <c r="G151" s="37"/>
       <c r="H151" s="37"/>
     </row>
-    <row r="152" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="152" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="37"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -16348,7 +16407,7 @@
       <c r="G152" s="37"/>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
+    <row r="153" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="37"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -16358,7 +16417,7 @@
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
     </row>
-    <row r="154" spans="1:8" s="38" customFormat="1" ht="60" customHeight="1">
+    <row r="154" spans="1:8" s="38" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="37"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
@@ -16377,44 +16436,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="19.1640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="38" customWidth="1"/>
     <col min="8" max="8" width="21" style="38" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89" t="s">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -16422,34 +16481,34 @@
         <v>4</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="36" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A3" s="106"/>
+    </row>
+    <row r="3" spans="1:10" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85"/>
       <c r="B3" s="35"/>
-      <c r="C3" s="107"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
@@ -16458,10 +16517,10 @@
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" spans="1:10" s="36" customFormat="1">
-      <c r="A4" s="106"/>
+    <row r="4" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="107"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -16470,8 +16529,8 @@
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1">
-      <c r="A5" s="108"/>
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -16479,10 +16538,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="108"/>
-    </row>
-    <row r="6" spans="1:10" s="36" customFormat="1">
+      <c r="I5" s="88"/>
+      <c r="J5" s="87"/>
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -16494,7 +16553,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" s="36" customFormat="1">
+    <row r="7" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -16506,7 +16565,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" s="36" customFormat="1">
+    <row r="8" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -16518,7 +16577,7 @@
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" s="36" customFormat="1">
+    <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -16530,7 +16589,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" s="36" customFormat="1">
+    <row r="10" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -16542,7 +16601,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" s="36" customFormat="1">
+    <row r="11" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -16554,7 +16613,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" s="36" customFormat="1">
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -16566,7 +16625,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" s="36" customFormat="1">
+    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -16578,7 +16637,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" s="36" customFormat="1">
+    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -16590,10 +16649,10 @@
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" s="36" customFormat="1">
-      <c r="A15" s="110"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="110"/>
+    <row r="15" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16606,47 +16665,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="38" customWidth="1"/>
     <col min="9" max="9" width="14" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="26.5" style="38" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="38" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:12" s="38" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="88"/>
-    </row>
-    <row r="2" spans="1:12" s="45" customFormat="1" ht="45" customHeight="1">
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:12" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -16681,10 +16740,10 @@
         <v>16</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="36" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -16698,7 +16757,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1">
+    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="34"/>
@@ -16712,7 +16771,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="28.75" customHeight="1">
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -16726,7 +16785,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1">
+    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -16740,7 +16799,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1">
+    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -16754,9 +16813,9 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12" s="36" customFormat="1"/>
-    <row r="9" spans="1:12" s="36" customFormat="1"/>
-    <row r="10" spans="1:12" s="36" customFormat="1"/>
+    <row r="8" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -16768,40 +16827,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="38" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.08984375" style="38" customWidth="1"/>
-    <col min="8" max="18" width="8.7265625" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="38"/>
+    <col min="3" max="3" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="38" customWidth="1"/>
+    <col min="8" max="18" width="8.6640625" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="221" customHeight="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:7" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="96" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="86" t="s">
-        <v>431</v>
-      </c>
-      <c r="G1" s="87"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
@@ -16809,22 +16868,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>422</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="G2" s="82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="36" customFormat="1" ht="29" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -16833,7 +16892,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
+    <row r="4" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -16842,7 +16901,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
+    <row r="5" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -16851,7 +16910,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" s="36" customFormat="1" ht="77" customHeight="1">
+    <row r="6" spans="1:7" s="36" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -16860,7 +16919,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:7" s="36" customFormat="1">
+    <row r="7" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -16869,7 +16928,7 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
+    <row r="8" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -16878,7 +16937,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" s="36" customFormat="1">
+    <row r="9" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -16887,7 +16946,7 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1">
+    <row r="10" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -16896,7 +16955,7 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -16905,7 +16964,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -16914,7 +16973,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -16923,7 +16982,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -16932,7 +16991,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -16941,7 +17000,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -16950,7 +17009,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -16959,7 +17018,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -16968,7 +17027,7 @@
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -16977,7 +17036,7 @@
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -16986,7 +17045,7 @@
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -16995,7 +17054,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -17004,7 +17063,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -17013,7 +17072,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -17022,7 +17081,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -17031,7 +17090,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -17040,7 +17099,7 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -17049,7 +17108,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -17058,7 +17117,7 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -17067,7 +17126,7 @@
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -17087,28 +17146,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="38" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="38"/>
+    <col min="1" max="1" width="32.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="38" customWidth="1"/>
+    <col min="3" max="10" width="9.1640625" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="91"/>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" s="45" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="101"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -17116,25 +17175,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="39"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="39"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -17152,38 +17211,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="43.25" customHeight="1">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -17206,10 +17265,10 @@
         <v>27</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="36" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -17219,7 +17278,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:8" s="36" customFormat="1">
+    <row r="4" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -17229,7 +17288,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="1:8" s="36" customFormat="1">
+    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -17239,7 +17298,7 @@
       <c r="G5" s="34"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="36" customFormat="1">
+    <row r="6" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -17249,7 +17308,7 @@
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" s="36" customFormat="1">
+    <row r="7" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Blank-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-Blank-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91353C-C9E8-B24E-922A-CC5CD03414D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5238,77 +5237,6 @@
                                 Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 - Columns Region, Compartment Name, DRG Name are mandatory.
 - Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
@@ -5339,15 +5267,86 @@
   <si>
     <t>Maximum Bandwidth In Mbps (Flexible shapes only)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7825,23 +7824,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7877,23 +7859,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8069,22 +8034,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="58" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -8094,35 +8059,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="38" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="38" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="38" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="38" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="38" customWidth="1"/>
     <col min="17" max="17" width="10" style="38" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>254</v>
       </c>
@@ -8146,7 +8111,7 @@
       <c r="Q1" s="102"/>
       <c r="R1" s="102"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8202,7 +8167,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="36" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -8222,7 +8187,7 @@
       <c r="Q3" s="91"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="36" customFormat="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -8242,7 +8207,7 @@
       <c r="Q4" s="91"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="36" customFormat="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -8262,7 +8227,7 @@
       <c r="Q5" s="91"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -8281,7 +8246,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -8301,7 +8266,7 @@
       <c r="Q7" s="91"/>
       <c r="R7" s="35"/>
     </row>
-    <row r="8" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="36" customFormat="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -8321,7 +8286,7 @@
       <c r="Q8" s="91"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="36" customFormat="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -8341,7 +8306,7 @@
       <c r="Q9" s="91"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="36" customFormat="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -8361,7 +8326,7 @@
       <c r="Q10" s="91"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="36" customFormat="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -8381,7 +8346,7 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="36" customFormat="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8401,7 +8366,7 @@
       <c r="Q12" s="91"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:18" s="36" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
@@ -8413,30 +8378,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="38"/>
+    <col min="1" max="1" width="8.6328125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="8.6328125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>427</v>
       </c>
@@ -8450,7 +8415,7 @@
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -8483,7 +8448,7 @@
       </c>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -8496,7 +8461,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -8509,7 +8474,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -8522,7 +8487,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="39"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -8535,7 +8500,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -8548,7 +8513,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -8561,7 +8526,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -8574,7 +8539,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -8587,7 +8552,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -8600,7 +8565,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -8613,7 +8578,7 @@
       <c r="J12" s="37"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -8626,7 +8591,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -8639,7 +8604,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="58" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -8652,7 +8617,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="58" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -8665,7 +8630,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="58" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -8678,7 +8643,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="29" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -8691,7 +8656,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="29" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -8704,7 +8669,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="29" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -8717,7 +8682,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="58" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -8730,7 +8695,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="58" customHeight="1">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -8743,7 +8708,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="58" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -8756,7 +8721,7 @@
       <c r="J23" s="37"/>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="58" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -8769,7 +8734,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="58" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8782,7 +8747,7 @@
       <c r="J25" s="37"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="58" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -8795,7 +8760,7 @@
       <c r="J26" s="37"/>
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="58" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -8808,7 +8773,7 @@
       <c r="J27" s="37"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="58" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -8821,7 +8786,7 @@
       <c r="J28" s="37"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -8834,7 +8799,7 @@
       <c r="J29" s="37"/>
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="58" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -8847,7 +8812,7 @@
       <c r="J30" s="37"/>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="58" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -8860,7 +8825,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="58" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -8873,7 +8838,7 @@
       <c r="J32" s="37"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="58" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -8886,7 +8851,7 @@
       <c r="J33" s="37"/>
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="58" customHeight="1">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -8899,7 +8864,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="58" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -8912,7 +8877,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="58" customHeight="1">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -8925,7 +8890,7 @@
       <c r="J36" s="37"/>
       <c r="K36" s="39"/>
     </row>
-    <row r="37" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="58" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -8938,7 +8903,7 @@
       <c r="J37" s="37"/>
       <c r="K37" s="39"/>
     </row>
-    <row r="38" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="58" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8951,7 +8916,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="58" customHeight="1">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8964,7 +8929,7 @@
       <c r="J39" s="37"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="58" customHeight="1">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -8977,7 +8942,7 @@
       <c r="J40" s="37"/>
       <c r="K40" s="39"/>
     </row>
-    <row r="41" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="58" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -8990,7 +8955,7 @@
       <c r="J41" s="37"/>
       <c r="K41" s="39"/>
     </row>
-    <row r="42" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="58" customHeight="1">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -9003,7 +8968,7 @@
       <c r="J42" s="37"/>
       <c r="K42" s="39"/>
     </row>
-    <row r="43" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="58" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -9016,7 +8981,7 @@
       <c r="J43" s="37"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="58" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -9029,7 +8994,7 @@
       <c r="J44" s="37"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="58" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -9042,7 +9007,7 @@
       <c r="J45" s="37"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="58" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -9055,7 +9020,7 @@
       <c r="J46" s="37"/>
       <c r="K46" s="39"/>
     </row>
-    <row r="47" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="58" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -9068,7 +9033,7 @@
       <c r="J47" s="37"/>
       <c r="K47" s="39"/>
     </row>
-    <row r="48" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="58" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -9081,7 +9046,7 @@
       <c r="J48" s="37"/>
       <c r="K48" s="39"/>
     </row>
-    <row r="49" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="58" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -9094,7 +9059,7 @@
       <c r="J49" s="37"/>
       <c r="K49" s="39"/>
     </row>
-    <row r="50" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="58" customHeight="1">
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -9107,7 +9072,7 @@
       <c r="J50" s="37"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="58" customHeight="1">
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -9120,7 +9085,7 @@
       <c r="J51" s="37"/>
       <c r="K51" s="39"/>
     </row>
-    <row r="52" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="58" customHeight="1">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -9133,7 +9098,7 @@
       <c r="J52" s="37"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="58" customHeight="1">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -9146,7 +9111,7 @@
       <c r="J53" s="37"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="58" customHeight="1">
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -9159,7 +9124,7 @@
       <c r="J54" s="37"/>
       <c r="K54" s="39"/>
     </row>
-    <row r="55" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="58" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -9172,7 +9137,7 @@
       <c r="J55" s="37"/>
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="58" customHeight="1">
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -9185,7 +9150,7 @@
       <c r="J56" s="37"/>
       <c r="K56" s="39"/>
     </row>
-    <row r="57" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="58" customHeight="1">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -9198,7 +9163,7 @@
       <c r="J57" s="37"/>
       <c r="K57" s="39"/>
     </row>
-    <row r="58" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="58" customHeight="1">
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -9211,7 +9176,7 @@
       <c r="J58" s="37"/>
       <c r="K58" s="39"/>
     </row>
-    <row r="59" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="58" customHeight="1">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -9224,7 +9189,7 @@
       <c r="J59" s="37"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="58" customHeight="1">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -9237,7 +9202,7 @@
       <c r="J60" s="37"/>
       <c r="K60" s="39"/>
     </row>
-    <row r="61" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="58" customHeight="1">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -9250,7 +9215,7 @@
       <c r="J61" s="37"/>
       <c r="K61" s="39"/>
     </row>
-    <row r="62" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="58" customHeight="1">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -9263,7 +9228,7 @@
       <c r="J62" s="37"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="58" customHeight="1">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -9276,7 +9241,7 @@
       <c r="J63" s="37"/>
       <c r="K63" s="39"/>
     </row>
-    <row r="64" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="58" customHeight="1">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -9289,7 +9254,7 @@
       <c r="J64" s="37"/>
       <c r="K64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="58" customHeight="1">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -9302,7 +9267,7 @@
       <c r="J65" s="37"/>
       <c r="K65" s="39"/>
     </row>
-    <row r="66" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="58" customHeight="1">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -9315,7 +9280,7 @@
       <c r="J66" s="37"/>
       <c r="K66" s="39"/>
     </row>
-    <row r="67" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="58" customHeight="1">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
@@ -9328,7 +9293,7 @@
       <c r="J67" s="37"/>
       <c r="K67" s="39"/>
     </row>
-    <row r="68" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="58" customHeight="1">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -9341,7 +9306,7 @@
       <c r="J68" s="37"/>
       <c r="K68" s="39"/>
     </row>
-    <row r="69" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="58" customHeight="1">
       <c r="A69" s="37"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -9354,7 +9319,7 @@
       <c r="J69" s="37"/>
       <c r="K69" s="39"/>
     </row>
-    <row r="70" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="58" customHeight="1">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -9367,7 +9332,7 @@
       <c r="J70" s="37"/>
       <c r="K70" s="39"/>
     </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="58" customHeight="1">
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
@@ -9380,7 +9345,7 @@
       <c r="J71" s="37"/>
       <c r="K71" s="39"/>
     </row>
-    <row r="72" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="58" customHeight="1">
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
@@ -9393,7 +9358,7 @@
       <c r="J72" s="37"/>
       <c r="K72" s="39"/>
     </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="58" customHeight="1">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -9406,7 +9371,7 @@
       <c r="J73" s="37"/>
       <c r="K73" s="39"/>
     </row>
-    <row r="74" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="58" customHeight="1">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -9419,7 +9384,7 @@
       <c r="J74" s="37"/>
       <c r="K74" s="39"/>
     </row>
-    <row r="75" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="58" customHeight="1">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -9432,7 +9397,7 @@
       <c r="J75" s="37"/>
       <c r="K75" s="39"/>
     </row>
-    <row r="76" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="58" customHeight="1">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
@@ -9445,7 +9410,7 @@
       <c r="J76" s="37"/>
       <c r="K76" s="39"/>
     </row>
-    <row r="77" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="58" customHeight="1">
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -9458,7 +9423,7 @@
       <c r="J77" s="37"/>
       <c r="K77" s="39"/>
     </row>
-    <row r="78" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="58" customHeight="1">
       <c r="A78" s="37"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -9471,7 +9436,7 @@
       <c r="J78" s="37"/>
       <c r="K78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="58" customHeight="1">
       <c r="A79" s="37"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -9484,7 +9449,7 @@
       <c r="J79" s="37"/>
       <c r="K79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="58" customHeight="1">
       <c r="A80" s="37"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -9497,7 +9462,7 @@
       <c r="J80" s="37"/>
       <c r="K80" s="39"/>
     </row>
-    <row r="81" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="58" customHeight="1">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -9510,7 +9475,7 @@
       <c r="J81" s="37"/>
       <c r="K81" s="39"/>
     </row>
-    <row r="82" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="58" customHeight="1">
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -9523,7 +9488,7 @@
       <c r="J82" s="37"/>
       <c r="K82" s="39"/>
     </row>
-    <row r="83" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="58" customHeight="1">
       <c r="A83" s="37"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -9536,7 +9501,7 @@
       <c r="J83" s="37"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="58" customHeight="1">
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -9549,7 +9514,7 @@
       <c r="J84" s="37"/>
       <c r="K84" s="39"/>
     </row>
-    <row r="85" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="58" customHeight="1">
       <c r="A85" s="37"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
@@ -9562,7 +9527,7 @@
       <c r="J85" s="37"/>
       <c r="K85" s="39"/>
     </row>
-    <row r="86" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="58" customHeight="1">
       <c r="A86" s="37"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -9575,7 +9540,7 @@
       <c r="J86" s="37"/>
       <c r="K86" s="39"/>
     </row>
-    <row r="87" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="58" customHeight="1">
       <c r="A87" s="37"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -9588,7 +9553,7 @@
       <c r="J87" s="37"/>
       <c r="K87" s="39"/>
     </row>
-    <row r="88" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="58" customHeight="1">
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -9601,7 +9566,7 @@
       <c r="J88" s="37"/>
       <c r="K88" s="39"/>
     </row>
-    <row r="89" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="58" customHeight="1">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -9614,7 +9579,7 @@
       <c r="J89" s="37"/>
       <c r="K89" s="39"/>
     </row>
-    <row r="90" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="58" customHeight="1">
       <c r="A90" s="37"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
@@ -9627,7 +9592,7 @@
       <c r="J90" s="37"/>
       <c r="K90" s="39"/>
     </row>
-    <row r="91" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="58" customHeight="1">
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -9640,7 +9605,7 @@
       <c r="J91" s="37"/>
       <c r="K91" s="39"/>
     </row>
-    <row r="92" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="58" customHeight="1">
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -9653,7 +9618,7 @@
       <c r="J92" s="37"/>
       <c r="K92" s="39"/>
     </row>
-    <row r="93" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="58" customHeight="1">
       <c r="A93" s="37"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -9666,7 +9631,7 @@
       <c r="J93" s="37"/>
       <c r="K93" s="39"/>
     </row>
-    <row r="94" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="58" customHeight="1">
       <c r="A94" s="37"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
@@ -9679,7 +9644,7 @@
       <c r="J94" s="37"/>
       <c r="K94" s="39"/>
     </row>
-    <row r="95" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="58" customHeight="1">
       <c r="A95" s="37"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -9692,7 +9657,7 @@
       <c r="J95" s="37"/>
       <c r="K95" s="39"/>
     </row>
-    <row r="96" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="58" customHeight="1">
       <c r="A96" s="37"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -9705,7 +9670,7 @@
       <c r="J96" s="37"/>
       <c r="K96" s="39"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="37"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -9718,7 +9683,7 @@
       <c r="J97" s="37"/>
       <c r="K97" s="39"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="37"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -9731,7 +9696,7 @@
       <c r="J98" s="37"/>
       <c r="K98" s="39"/>
     </row>
-    <row r="99" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="29" customHeight="1">
       <c r="A99" s="37"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -9744,7 +9709,7 @@
       <c r="J99" s="37"/>
       <c r="K99" s="39"/>
     </row>
-    <row r="100" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="29" customHeight="1">
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -9757,7 +9722,7 @@
       <c r="J100" s="37"/>
       <c r="K100" s="39"/>
     </row>
-    <row r="101" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="29" customHeight="1">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -9770,7 +9735,7 @@
       <c r="J101" s="37"/>
       <c r="K101" s="39"/>
     </row>
-    <row r="102" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="29" customHeight="1">
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -9783,7 +9748,7 @@
       <c r="J102" s="37"/>
       <c r="K102" s="39"/>
     </row>
-    <row r="103" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="29" customHeight="1">
       <c r="A103" s="37"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -9796,7 +9761,7 @@
       <c r="J103" s="37"/>
       <c r="K103" s="39"/>
     </row>
-    <row r="104" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="29" customHeight="1">
       <c r="A104" s="37"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -9809,7 +9774,7 @@
       <c r="J104" s="37"/>
       <c r="K104" s="39"/>
     </row>
-    <row r="105" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="29" customHeight="1">
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -9822,7 +9787,7 @@
       <c r="J105" s="37"/>
       <c r="K105" s="39"/>
     </row>
-    <row r="106" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="29" customHeight="1">
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -9835,7 +9800,7 @@
       <c r="J106" s="37"/>
       <c r="K106" s="39"/>
     </row>
-    <row r="107" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="29" customHeight="1">
       <c r="A107" s="37"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -9848,7 +9813,7 @@
       <c r="J107" s="37"/>
       <c r="K107" s="39"/>
     </row>
-    <row r="108" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="29" customHeight="1">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -9861,7 +9826,7 @@
       <c r="J108" s="37"/>
       <c r="K108" s="39"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -9874,7 +9839,7 @@
       <c r="J109" s="37"/>
       <c r="K109" s="39"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -9887,7 +9852,7 @@
       <c r="J110" s="37"/>
       <c r="K110" s="39"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -9900,7 +9865,7 @@
       <c r="J111" s="37"/>
       <c r="K111" s="39"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -9913,7 +9878,7 @@
       <c r="J112" s="37"/>
       <c r="K112" s="39"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -9926,7 +9891,7 @@
       <c r="J113" s="37"/>
       <c r="K113" s="39"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -9939,7 +9904,7 @@
       <c r="J114" s="37"/>
       <c r="K114" s="39"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -9952,7 +9917,7 @@
       <c r="J115" s="37"/>
       <c r="K115" s="39"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -9965,7 +9930,7 @@
       <c r="J116" s="37"/>
       <c r="K116" s="39"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -9978,7 +9943,7 @@
       <c r="J117" s="37"/>
       <c r="K117" s="39"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -10000,27 +9965,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="38" customWidth="1"/>
     <col min="5" max="5" width="16" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>262</v>
       </c>
@@ -10033,7 +9998,7 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -10072,26 +10037,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="38" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>263</v>
       </c>
@@ -10112,7 +10077,7 @@
       <c r="P1" s="95"/>
       <c r="Q1" s="95"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -10174,31 +10139,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="38" customWidth="1"/>
     <col min="11" max="11" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>266</v>
       </c>
@@ -10222,7 +10187,7 @@
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10284,7 +10249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="36" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -10306,7 +10271,7 @@
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
-    <row r="4" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -10328,7 +10293,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
     </row>
-    <row r="5" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="36" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -10350,7 +10315,7 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
     </row>
-    <row r="6" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="36" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -10372,7 +10337,7 @@
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
     </row>
-    <row r="7" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="36" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10394,7 +10359,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
     </row>
-    <row r="8" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="36" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -10416,7 +10381,7 @@
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
     </row>
-    <row r="9" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="36" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -10438,7 +10403,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
-    <row r="10" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="36" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -10460,7 +10425,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
     </row>
-    <row r="11" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="36" customFormat="1">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -10482,7 +10447,7 @@
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
     </row>
-    <row r="12" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="36" customFormat="1">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -10504,7 +10469,7 @@
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
     </row>
-    <row r="13" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="36" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -10526,7 +10491,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
     </row>
-    <row r="14" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="36" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -10548,7 +10513,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
     </row>
-    <row r="15" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="36" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -10570,7 +10535,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
     </row>
-    <row r="16" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="36" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -10592,7 +10557,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
     </row>
-    <row r="17" spans="1:20" s="36" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="36" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="34"/>
@@ -10614,7 +10579,7 @@
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -10634,7 +10599,7 @@
       <c r="Q18" s="91"/>
       <c r="R18" s="35"/>
     </row>
-    <row r="19" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -10654,7 +10619,7 @@
       <c r="Q19" s="91"/>
       <c r="R19" s="35"/>
     </row>
-    <row r="20" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -10674,7 +10639,7 @@
       <c r="Q20" s="91"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="36" customFormat="1" ht="31.75" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -10694,35 +10659,35 @@
       <c r="Q21" s="91"/>
       <c r="R21" s="35"/>
     </row>
-    <row r="22" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" s="36" customFormat="1"/>
+    <row r="23" spans="1:20" s="36" customFormat="1"/>
+    <row r="24" spans="1:20" s="36" customFormat="1"/>
+    <row r="25" spans="1:20" s="36" customFormat="1"/>
+    <row r="26" spans="1:20" s="36" customFormat="1"/>
+    <row r="27" spans="1:20" s="36" customFormat="1"/>
+    <row r="28" spans="1:20" s="36" customFormat="1"/>
+    <row r="29" spans="1:20" s="36" customFormat="1"/>
+    <row r="30" spans="1:20" s="36" customFormat="1"/>
+    <row r="31" spans="1:20" s="36" customFormat="1"/>
+    <row r="32" spans="1:20" s="36" customFormat="1"/>
+    <row r="33" s="36" customFormat="1"/>
+    <row r="34" s="36" customFormat="1"/>
+    <row r="35" s="36" customFormat="1"/>
+    <row r="36" s="36" customFormat="1"/>
+    <row r="37" s="36" customFormat="1"/>
+    <row r="38" s="36" customFormat="1"/>
+    <row r="39" s="36" customFormat="1"/>
+    <row r="40" s="36" customFormat="1"/>
+    <row r="41" s="36" customFormat="1"/>
+    <row r="42" s="36" customFormat="1"/>
+    <row r="43" s="36" customFormat="1"/>
+    <row r="44" s="36" customFormat="1"/>
+    <row r="45" s="36" customFormat="1"/>
+    <row r="46" s="36" customFormat="1"/>
+    <row r="47" s="36" customFormat="1"/>
+    <row r="48" s="36" customFormat="1"/>
+    <row r="49" s="36" customFormat="1"/>
+    <row r="50" s="36" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
@@ -10733,24 +10698,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>267</v>
       </c>
@@ -10761,7 +10726,7 @@
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:7" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="45" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10784,7 +10749,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -10793,7 +10758,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10802,7 +10767,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10811,7 +10776,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10829,34 +10794,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="38" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="38" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="117" customHeight="1">
       <c r="A1" s="103" t="s">
         <v>419</v>
       </c>
@@ -10878,7 +10843,7 @@
       <c r="O1" s="97"/>
       <c r="P1" s="98"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -10928,7 +10893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="36" customFormat="1">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="93"/>
@@ -10946,7 +10911,7 @@
       <c r="O3" s="93"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="36" customFormat="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -10966,7 +10931,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="36" customFormat="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -10986,7 +10951,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -11006,7 +10971,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -11037,27 +11002,27 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
     <col min="2" max="2" width="23" style="38" customWidth="1"/>
     <col min="3" max="3" width="17" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>392</v>
       </c>
@@ -11071,7 +11036,7 @@
       <c r="I1" s="97"/>
       <c r="J1" s="98"/>
     </row>
-    <row r="2" spans="1:10" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="45" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -11103,7 +11068,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="36" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="34"/>
@@ -11115,7 +11080,7 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="36" customFormat="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -11127,7 +11092,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="36" customFormat="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -11149,34 +11114,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="38" customWidth="1"/>
     <col min="7" max="7" width="15" style="38" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="38" customWidth="1"/>
     <col min="10" max="10" width="16" style="38" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="38" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="38" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="38" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="38" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="106" t="s">
         <v>274</v>
       </c>
@@ -11199,7 +11164,7 @@
       <c r="P1" s="109"/>
       <c r="Q1" s="109"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -11252,7 +11217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -11271,7 +11236,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="30"/>
       <c r="B4" s="39"/>
       <c r="C4" s="30"/>
@@ -11290,7 +11255,7 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="30"/>
       <c r="B5" s="39"/>
       <c r="C5" s="30"/>
@@ -11309,7 +11274,7 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -11327,7 +11292,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="30"/>
       <c r="B7" s="39"/>
       <c r="C7" s="30"/>
@@ -11346,7 +11311,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="30"/>
       <c r="B8" s="39"/>
       <c r="C8" s="30"/>
@@ -11365,7 +11330,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="30"/>
       <c r="B9" s="39"/>
       <c r="C9" s="30"/>
@@ -11384,7 +11349,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="30"/>
       <c r="B10" s="39"/>
       <c r="C10" s="30"/>
@@ -11414,30 +11379,30 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="38" customWidth="1"/>
     <col min="5" max="5" width="19" style="38" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="38" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="38" customWidth="1"/>
     <col min="10" max="10" width="25" style="38" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="38" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="38" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="28.1796875" style="38" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="122.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>264</v>
       </c>
@@ -11459,7 +11424,7 @@
       <c r="Q1" s="95"/>
       <c r="R1" s="95"/>
     </row>
-    <row r="2" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="43.25" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -11470,13 +11435,13 @@
         <v>85</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>432</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>433</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>86</v>
@@ -11515,7 +11480,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.25" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -11535,7 +11500,7 @@
       <c r="Q3" s="39"/>
       <c r="R3" s="39"/>
     </row>
-    <row r="4" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="65.5" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -11555,7 +11520,7 @@
       <c r="Q4" s="54"/>
       <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="37.25" customHeight="1">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11575,7 +11540,7 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
     </row>
-    <row r="6" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="43.25" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11605,23 +11570,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="108" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>257</v>
       </c>
@@ -11630,7 +11595,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -11647,91 +11612,91 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="38" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="38" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="36" customFormat="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="36" customFormat="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="36" customFormat="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="36" customFormat="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="36" customFormat="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="36" customFormat="1">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="36" customFormat="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -11748,31 +11713,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="38" customWidth="1"/>
     <col min="3" max="3" width="11" style="38" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="38" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="38" customWidth="1"/>
     <col min="6" max="6" width="18" style="38" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="38" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="38" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="38" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="38" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="38" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="38" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>280</v>
       </c>
@@ -11797,7 +11762,7 @@
       <c r="T1" s="97"/>
       <c r="U1" s="98"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -11862,7 +11827,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -11885,7 +11850,7 @@
       <c r="T3" s="39"/>
       <c r="U3" s="39"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -11908,7 +11873,7 @@
       <c r="T4" s="39"/>
       <c r="U4" s="39"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -11931,7 +11896,7 @@
       <c r="T5" s="39"/>
       <c r="U5" s="39"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -11964,31 +11929,31 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="38" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="38" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="38" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="38" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="38" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="38" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="38" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>255</v>
       </c>
@@ -12013,7 +11978,7 @@
       <c r="R1" s="110"/>
       <c r="S1" s="111"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -12072,7 +12037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12093,7 +12058,7 @@
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12114,7 +12079,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12135,7 +12100,7 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12156,7 +12121,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -12177,7 +12142,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -12198,7 +12163,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -12219,7 +12184,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -12240,7 +12205,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -12261,7 +12226,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -12282,7 +12247,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -12303,7 +12268,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -12324,7 +12289,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -12345,7 +12310,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -12366,7 +12331,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -12387,7 +12352,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -12408,7 +12373,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -12429,7 +12394,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -12450,7 +12415,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -12471,7 +12436,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -12492,7 +12457,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -12519,47 +12484,47 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1400-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1400-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1400-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1400-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="44.5" customHeight="1">
       <c r="A1" s="112" t="s">
         <v>256</v>
       </c>
@@ -12569,7 +12534,7 @@
       <c r="E1" s="113"/>
       <c r="F1" s="114"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -12589,7 +12554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12597,7 +12562,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12605,7 +12570,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12613,7 +12578,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12621,7 +12586,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -12634,7 +12599,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -12643,27 +12608,27 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="38" customWidth="1"/>
     <col min="9" max="9" width="15" style="38" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="38" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>279</v>
       </c>
@@ -12683,7 +12648,7 @@
       <c r="O1" s="95"/>
       <c r="P1" s="95"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -12733,7 +12698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12751,7 +12716,7 @@
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12769,7 +12734,7 @@
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12787,7 +12752,7 @@
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -12815,28 +12780,28 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="16.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="38"/>
     <col min="8" max="8" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="38" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="38"/>
+    <col min="9" max="9" width="13.81640625" style="38" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="115" t="s">
         <v>393</v>
       </c>
@@ -12849,7 +12814,7 @@
       <c r="H1" s="115"/>
       <c r="I1" s="115"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -12878,7 +12843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="62"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -12889,7 +12854,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -12901,7 +12866,7 @@
       <c r="I4" s="57"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -12923,39 +12888,39 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="38" customWidth="1"/>
     <col min="2" max="2" width="14" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="38" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="38" customWidth="1"/>
     <col min="9" max="9" width="13" style="38" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="69" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="38"/>
-    <col min="14" max="14" width="20.5" style="3"/>
-    <col min="15" max="17" width="20.5" style="38"/>
+    <col min="10" max="10" width="16.453125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="69" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="38"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="38"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5" style="38"/>
-    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
-    <col min="24" max="24" width="20.5" style="38"/>
-    <col min="25" max="25" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5" style="38"/>
+    <col min="19" max="21" width="20.453125" style="38"/>
+    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="38"/>
+    <col min="25" max="25" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>399</v>
       </c>
@@ -12983,7 +12948,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="43.5">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -13057,7 +13022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="47"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -13083,7 +13048,7 @@
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39"/>
@@ -13109,7 +13074,7 @@
       <c r="W4" s="39"/>
       <c r="X4" s="39"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="50"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39"/>
@@ -13140,25 +13105,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1800-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1800-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13168,46 +13133,46 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="69" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="69" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="38" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="38" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="38"/>
+    <col min="27" max="27" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="133.25" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>415</v>
       </c>
@@ -13235,7 +13200,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="29">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -13309,7 +13274,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="47"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -13335,7 +13300,7 @@
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39"/>
@@ -13361,7 +13326,7 @@
       <c r="W4" s="39"/>
       <c r="X4" s="37"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="50"/>
       <c r="B5" s="37"/>
       <c r="C5" s="39"/>
@@ -13392,28 +13357,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13423,44 +13388,44 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="38" customWidth="1"/>
-    <col min="24" max="25" width="14.5" style="38" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="38"/>
+    <col min="19" max="19" width="13.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="38" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="38" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="64" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="64" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>417</v>
       </c>
@@ -13488,7 +13453,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="98"/>
     </row>
-    <row r="2" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="29">
       <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
@@ -13562,7 +13527,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="75" customFormat="1">
       <c r="A3" s="73"/>
       <c r="B3" s="74"/>
       <c r="D3" s="74"/>
@@ -13587,7 +13552,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="62"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="50"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -13613,7 +13578,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="37"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="78"/>
       <c r="B5" s="48"/>
       <c r="C5" s="79"/>
@@ -13624,22 +13589,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1A00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
   </dataValidations>
@@ -13649,24 +13614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>150</v>
       </c>
@@ -13686,7 +13651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>135</v>
       </c>
@@ -13706,7 +13671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>137</v>
       </c>
@@ -13726,7 +13691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>128</v>
       </c>
@@ -13746,7 +13711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>121</v>
       </c>
@@ -13764,7 +13729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>134</v>
       </c>
@@ -13777,7 +13742,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>139</v>
       </c>
@@ -13786,7 +13751,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>127</v>
       </c>
@@ -13794,7 +13759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>130</v>
       </c>
@@ -13802,7 +13767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>136</v>
       </c>
@@ -13810,7 +13775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>138</v>
       </c>
@@ -13818,153 +13783,153 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="31" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1">
       <c r="B13" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1">
       <c r="B14" s="31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1">
       <c r="B15" s="31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1">
       <c r="B16" s="31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1">
       <c r="B18" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1">
       <c r="B19" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1">
       <c r="B21" s="31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1">
       <c r="B22" s="31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1">
       <c r="B23" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1">
       <c r="B24" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1">
       <c r="B25" s="31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1">
       <c r="B26" s="31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1">
       <c r="B27" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1">
       <c r="B28" s="31" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1">
       <c r="B29" s="31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1">
       <c r="B30" s="31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1">
       <c r="B31" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1">
       <c r="B32" s="31" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1">
       <c r="B33" s="31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1">
       <c r="B34" s="31" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1">
       <c r="B35" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1">
       <c r="B36" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1">
       <c r="B37" s="31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1">
       <c r="B38" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1">
       <c r="B39" s="31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1">
       <c r="B40" s="31" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -13974,27 +13939,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="38" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="38" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="49" t="s">
         <v>210</v>
       </c>
@@ -14023,7 +13988,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="39" t="s">
         <v>68</v>
       </c>
@@ -14052,7 +14017,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="39" t="s">
         <v>211</v>
       </c>
@@ -14081,7 +14046,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="39" t="s">
         <v>212</v>
       </c>
@@ -14101,7 +14066,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -14121,7 +14086,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>213</v>
       </c>
@@ -14139,7 +14104,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="39" t="s">
         <v>202</v>
       </c>
@@ -14157,7 +14122,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
@@ -14173,7 +14138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="s">
@@ -14189,7 +14154,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
@@ -14205,7 +14170,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
@@ -14221,7 +14186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
@@ -14235,7 +14200,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
@@ -14249,7 +14214,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
@@ -14263,472 +14228,472 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="I15" s="39" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="I16" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9">
       <c r="I17" s="39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9">
       <c r="I18" s="39" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9">
       <c r="I19" s="39" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9">
       <c r="I20" s="39" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9">
       <c r="I21" s="39" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9">
       <c r="I23" s="39" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9">
       <c r="I24" s="39" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" s="39" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" s="39" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" s="39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:9">
       <c r="I29" s="39" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:9">
       <c r="I30" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:9">
       <c r="I31" s="39" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:9">
       <c r="I32" s="39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:9">
       <c r="I33" s="39" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:9">
       <c r="I34" s="39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:9">
       <c r="I35" s="39" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:9">
       <c r="I36" s="39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:9">
       <c r="I37" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:9">
       <c r="I38" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:9">
       <c r="I39" s="39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:9">
       <c r="I40" s="39" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:9">
       <c r="I41" s="39" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:9">
       <c r="I42" s="39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:9">
       <c r="I43" s="39" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:9">
       <c r="I44" s="39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:9">
       <c r="I45" s="39" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:9">
       <c r="I46" s="39" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:9">
       <c r="I47" s="39" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:9">
       <c r="I48" s="39" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9">
       <c r="I49" s="39" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9">
       <c r="I50" s="39" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9">
       <c r="I51" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9">
       <c r="I52" s="39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9">
       <c r="I53" s="39" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9">
       <c r="I54" s="39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9">
       <c r="I55" s="39" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9">
       <c r="I56" s="39" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9">
       <c r="I57" s="39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9">
       <c r="I58" s="39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:9">
       <c r="I59" s="39" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:9">
       <c r="I60" s="39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:9">
       <c r="I61" s="39" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:9">
       <c r="I62" s="39" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:9">
       <c r="I63" s="39" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:9">
       <c r="I64" s="39" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9">
       <c r="I65" s="39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9">
       <c r="I66" s="39" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9">
       <c r="I67" s="39" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9">
       <c r="I68" s="39" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9">
       <c r="I69" s="39" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9">
       <c r="I70" s="39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9">
       <c r="I71" s="39" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9">
       <c r="I72" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9">
       <c r="I73" s="39" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9">
       <c r="I74" s="39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9">
       <c r="I75" s="39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9">
       <c r="I76" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9">
       <c r="I77" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9">
       <c r="I78" s="39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9">
       <c r="I79" s="39" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9">
       <c r="I80" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9">
       <c r="I81" s="39" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9">
       <c r="I82" s="39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9">
       <c r="I83" s="39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9">
       <c r="I84" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9">
       <c r="I85" s="39" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9">
       <c r="I86" s="39" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9">
       <c r="I87" s="39" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9">
       <c r="I88" s="39" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9">
       <c r="I89" s="39" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9">
       <c r="I90" s="39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9">
       <c r="I91" s="39" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9">
       <c r="I92" s="39" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9">
       <c r="I93" s="39" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9">
       <c r="I94" s="39" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9">
       <c r="I95" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9">
       <c r="I96" s="39" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97" s="39" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" s="39" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99" s="39" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100" s="39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" s="39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102" s="39" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" s="39" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104" s="39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" s="39" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" s="39" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" s="39" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108" s="39" t="s">
         <v>389</v>
       </c>
@@ -14740,23 +14705,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>258</v>
       </c>
@@ -14765,7 +14730,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="95"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -14782,63 +14747,63 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="38" customFormat="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="38" customFormat="1">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:5" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="38" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" s="38" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="38" customFormat="1" ht="32.5" customHeight="1">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="48" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="48" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="83"/>
     </row>
   </sheetData>
@@ -14851,25 +14816,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="38" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="38" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="45" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>259</v>
       </c>
@@ -14881,7 +14846,7 @@
       <c r="G1" s="95"/>
       <c r="H1" s="95"/>
     </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="45" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -14907,7 +14872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="38" customFormat="1">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -14917,7 +14882,7 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="38" customFormat="1">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -14927,7 +14892,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="38" customFormat="1">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -14937,7 +14902,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="38" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -14947,7 +14912,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="38" customFormat="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -14957,7 +14922,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="38" customFormat="1">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -14967,7 +14932,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
     </row>
-    <row r="9" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="38" customFormat="1">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -14977,7 +14942,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
     </row>
-    <row r="10" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="38" customFormat="1">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -14987,7 +14952,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
     </row>
-    <row r="11" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="38" customFormat="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -14997,7 +14962,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="38" customFormat="1">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -15007,7 +14972,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="38" customFormat="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -15017,7 +14982,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="38" customFormat="1">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -15027,7 +14992,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="38" customFormat="1">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -15037,7 +15002,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
     </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -15047,7 +15012,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -15057,7 +15022,7 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -15067,7 +15032,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -15077,7 +15042,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -15087,7 +15052,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -15097,7 +15062,7 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="38" customFormat="1">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -15107,7 +15072,7 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -15117,7 +15082,7 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -15127,7 +15092,7 @@
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -15137,7 +15102,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -15147,7 +15112,7 @@
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -15157,7 +15122,7 @@
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -15167,7 +15132,7 @@
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="38" customFormat="1">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -15177,7 +15142,7 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
     </row>
-    <row r="30" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="38" customFormat="1">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -15187,7 +15152,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
     </row>
-    <row r="31" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -15197,7 +15162,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
     </row>
-    <row r="32" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -15207,7 +15172,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
     </row>
-    <row r="33" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -15217,7 +15182,7 @@
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
     </row>
-    <row r="34" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="38" customFormat="1">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -15227,7 +15192,7 @@
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
     </row>
-    <row r="35" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="38" customFormat="1">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -15237,7 +15202,7 @@
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
     </row>
-    <row r="36" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="38" customFormat="1">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -15247,7 +15212,7 @@
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -15257,7 +15222,7 @@
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
     </row>
-    <row r="38" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -15267,7 +15232,7 @@
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
     </row>
-    <row r="39" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -15277,7 +15242,7 @@
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
     </row>
-    <row r="40" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -15287,7 +15252,7 @@
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
     </row>
-    <row r="41" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -15297,7 +15262,7 @@
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -15307,7 +15272,7 @@
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -15317,7 +15282,7 @@
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
     </row>
-    <row r="44" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -15327,7 +15292,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
     </row>
-    <row r="45" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -15337,7 +15302,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
     </row>
-    <row r="46" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -15347,7 +15312,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
     </row>
-    <row r="47" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -15357,7 +15322,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
     </row>
-    <row r="48" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="38" customFormat="1">
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -15367,7 +15332,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
     </row>
-    <row r="49" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="38" customFormat="1">
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -15377,7 +15342,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="38" customFormat="1">
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -15387,7 +15352,7 @@
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
     </row>
-    <row r="51" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="38" customFormat="1">
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -15397,7 +15362,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
     </row>
-    <row r="52" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="38" customFormat="1">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -15407,7 +15372,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
     </row>
-    <row r="53" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="38" customFormat="1">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -15417,7 +15382,7 @@
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
     </row>
-    <row r="54" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="38" customFormat="1">
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -15427,7 +15392,7 @@
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
     </row>
-    <row r="55" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -15437,7 +15402,7 @@
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
     </row>
-    <row r="56" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -15447,7 +15412,7 @@
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
     </row>
-    <row r="57" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="38" customFormat="1">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -15457,7 +15422,7 @@
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
     </row>
-    <row r="58" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="38" customFormat="1">
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -15467,7 +15432,7 @@
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
     </row>
-    <row r="59" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -15477,7 +15442,7 @@
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
     </row>
-    <row r="60" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="38" customFormat="1">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -15487,7 +15452,7 @@
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
     </row>
-    <row r="61" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -15497,7 +15462,7 @@
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
     </row>
-    <row r="62" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="38" customFormat="1">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -15507,7 +15472,7 @@
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
     </row>
-    <row r="63" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="38" customFormat="1">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -15517,7 +15482,7 @@
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
     </row>
-    <row r="64" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="38" customFormat="1">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -15527,7 +15492,7 @@
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
     </row>
-    <row r="65" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="38" customFormat="1">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -15537,7 +15502,7 @@
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
     </row>
-    <row r="66" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="38" customFormat="1">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -15547,7 +15512,7 @@
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
     </row>
-    <row r="67" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="38" customFormat="1">
       <c r="A67" s="37"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
@@ -15557,7 +15522,7 @@
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
     </row>
-    <row r="68" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="38" customFormat="1">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -15567,7 +15532,7 @@
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
     </row>
-    <row r="69" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="38" customFormat="1">
       <c r="A69" s="37"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -15577,7 +15542,7 @@
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -15587,7 +15552,7 @@
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
     </row>
-    <row r="71" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A71" s="37"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
@@ -15597,7 +15562,7 @@
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
     </row>
-    <row r="72" spans="1:8" s="38" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="38" customFormat="1" ht="87" customHeight="1">
       <c r="A72" s="37"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
@@ -15607,7 +15572,7 @@
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
     </row>
-    <row r="73" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A73" s="37"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -15617,7 +15582,7 @@
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
     </row>
-    <row r="74" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A74" s="37"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -15627,7 +15592,7 @@
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
     </row>
-    <row r="75" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -15637,7 +15602,7 @@
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
     </row>
-    <row r="76" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
@@ -15647,7 +15612,7 @@
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
     </row>
-    <row r="77" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="38" customFormat="1">
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -15657,7 +15622,7 @@
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
     </row>
-    <row r="78" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A78" s="37"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -15667,7 +15632,7 @@
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
     </row>
-    <row r="79" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A79" s="37"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -15677,7 +15642,7 @@
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
     </row>
-    <row r="80" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A80" s="37"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -15687,7 +15652,7 @@
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
     </row>
-    <row r="81" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -15697,7 +15662,7 @@
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
     </row>
-    <row r="82" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -15707,7 +15672,7 @@
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
     </row>
-    <row r="83" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A83" s="37"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -15717,7 +15682,7 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
     </row>
-    <row r="84" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -15727,7 +15692,7 @@
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
     </row>
-    <row r="85" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A85" s="37"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
@@ -15737,7 +15702,7 @@
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
     </row>
-    <row r="86" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A86" s="37"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -15747,7 +15712,7 @@
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
     </row>
-    <row r="87" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A87" s="37"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -15757,7 +15722,7 @@
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
     </row>
-    <row r="88" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="38" customFormat="1">
       <c r="A88" s="37"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
@@ -15767,7 +15732,7 @@
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
     </row>
-    <row r="89" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="38" customFormat="1">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -15777,7 +15742,7 @@
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
     </row>
-    <row r="90" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="38" customFormat="1">
       <c r="A90" s="37"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
@@ -15787,7 +15752,7 @@
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
     </row>
-    <row r="91" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -15797,7 +15762,7 @@
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
     </row>
-    <row r="92" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="38" customFormat="1">
       <c r="A92" s="37"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -15807,7 +15772,7 @@
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
     </row>
-    <row r="93" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A93" s="37"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -15817,7 +15782,7 @@
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
     </row>
-    <row r="94" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="38" customFormat="1">
       <c r="A94" s="37"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
@@ -15827,7 +15792,7 @@
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
     </row>
-    <row r="95" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A95" s="37"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -15837,7 +15802,7 @@
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
     </row>
-    <row r="96" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A96" s="37"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -15847,7 +15812,7 @@
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
     </row>
-    <row r="97" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A97" s="37"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -15857,7 +15822,7 @@
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
     </row>
-    <row r="98" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A98" s="37"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -15867,7 +15832,7 @@
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
     </row>
-    <row r="99" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A99" s="37"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -15877,7 +15842,7 @@
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
     </row>
-    <row r="100" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A100" s="37"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -15887,7 +15852,7 @@
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
     </row>
-    <row r="101" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="38" customFormat="1">
       <c r="A101" s="37"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -15897,7 +15862,7 @@
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
     </row>
-    <row r="102" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A102" s="37"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
@@ -15907,7 +15872,7 @@
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
     </row>
-    <row r="103" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="38" customFormat="1">
       <c r="A103" s="37"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -15917,7 +15882,7 @@
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
     </row>
-    <row r="104" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="38" customFormat="1">
       <c r="A104" s="37"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -15927,7 +15892,7 @@
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
     </row>
-    <row r="105" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="38" customFormat="1">
       <c r="A105" s="37"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -15937,7 +15902,7 @@
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
     </row>
-    <row r="106" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -15947,7 +15912,7 @@
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
     </row>
-    <row r="107" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="38" customFormat="1">
       <c r="A107" s="37"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -15957,7 +15922,7 @@
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
     </row>
-    <row r="108" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="38" customFormat="1">
       <c r="A108" s="37"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -15967,7 +15932,7 @@
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
     </row>
-    <row r="109" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -15977,7 +15942,7 @@
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
     </row>
-    <row r="110" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -15987,7 +15952,7 @@
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
     </row>
-    <row r="111" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -15997,7 +15962,7 @@
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
     </row>
-    <row r="112" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -16007,7 +15972,7 @@
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
     </row>
-    <row r="113" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -16017,7 +15982,7 @@
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
     </row>
-    <row r="114" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -16027,7 +15992,7 @@
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
     </row>
-    <row r="115" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -16037,7 +16002,7 @@
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
     </row>
-    <row r="116" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -16047,7 +16012,7 @@
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
     </row>
-    <row r="117" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -16057,7 +16022,7 @@
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
     </row>
-    <row r="118" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="38" customFormat="1">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -16067,7 +16032,7 @@
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
     </row>
-    <row r="119" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="38" customFormat="1">
       <c r="A119" s="37"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -16077,7 +16042,7 @@
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
     </row>
-    <row r="120" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="38" customFormat="1">
       <c r="A120" s="37"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
@@ -16087,7 +16052,7 @@
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
     </row>
-    <row r="121" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="38" customFormat="1">
       <c r="A121" s="37"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
@@ -16097,7 +16062,7 @@
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
     </row>
-    <row r="122" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" s="38" customFormat="1" ht="101.5" customHeight="1">
       <c r="A122" s="37"/>
       <c r="B122" s="84"/>
       <c r="C122" s="37"/>
@@ -16107,7 +16072,7 @@
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
     </row>
-    <row r="123" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A123" s="37"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
@@ -16117,7 +16082,7 @@
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
     </row>
-    <row r="124" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="38" customFormat="1" ht="43.5" customHeight="1">
       <c r="A124" s="37"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
@@ -16127,7 +16092,7 @@
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
     </row>
-    <row r="125" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A125" s="37"/>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
@@ -16137,7 +16102,7 @@
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
     </row>
-    <row r="126" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A126" s="37"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
@@ -16147,7 +16112,7 @@
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
     </row>
-    <row r="127" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A127" s="37"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
@@ -16157,7 +16122,7 @@
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
     </row>
-    <row r="128" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A128" s="37"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
@@ -16167,7 +16132,7 @@
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
     </row>
-    <row r="129" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A129" s="37"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
@@ -16177,7 +16142,7 @@
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
     </row>
-    <row r="130" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A130" s="37"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
@@ -16187,7 +16152,7 @@
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
     </row>
-    <row r="131" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A131" s="37"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -16197,7 +16162,7 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
     </row>
-    <row r="132" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A132" s="37"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -16207,7 +16172,7 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
     </row>
-    <row r="133" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A133" s="37"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
@@ -16217,7 +16182,7 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
     </row>
-    <row r="134" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A134" s="37"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
@@ -16227,7 +16192,7 @@
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
     </row>
-    <row r="135" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A135" s="37"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
@@ -16237,7 +16202,7 @@
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
     </row>
-    <row r="136" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A136" s="37"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -16247,7 +16212,7 @@
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
     </row>
-    <row r="137" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A137" s="37"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
@@ -16257,7 +16222,7 @@
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
     </row>
-    <row r="138" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A138" s="37"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
@@ -16267,7 +16232,7 @@
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
     </row>
-    <row r="139" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A139" s="37"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
@@ -16277,7 +16242,7 @@
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
     </row>
-    <row r="140" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A140" s="37"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -16287,7 +16252,7 @@
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
     </row>
-    <row r="141" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A141" s="37"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -16297,7 +16262,7 @@
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
     </row>
-    <row r="142" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A142" s="37"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
@@ -16307,7 +16272,7 @@
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
     </row>
-    <row r="143" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A143" s="37"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
@@ -16317,7 +16282,7 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
     </row>
-    <row r="144" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" s="38" customFormat="1">
       <c r="A144" s="37"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
@@ -16327,7 +16292,7 @@
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
     </row>
-    <row r="145" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" s="38" customFormat="1">
       <c r="A145" s="37"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
@@ -16337,7 +16302,7 @@
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
     </row>
-    <row r="146" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A146" s="37"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
@@ -16347,7 +16312,7 @@
       <c r="G146" s="37"/>
       <c r="H146" s="37"/>
     </row>
-    <row r="147" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
@@ -16357,7 +16322,7 @@
       <c r="G147" s="37"/>
       <c r="H147" s="37"/>
     </row>
-    <row r="148" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A148" s="37"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
@@ -16367,7 +16332,7 @@
       <c r="G148" s="37"/>
       <c r="H148" s="37"/>
     </row>
-    <row r="149" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" s="38" customFormat="1">
       <c r="A149" s="37"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
@@ -16377,7 +16342,7 @@
       <c r="G149" s="37"/>
       <c r="H149" s="37"/>
     </row>
-    <row r="150" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A150" s="37"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -16387,7 +16352,7 @@
       <c r="G150" s="37"/>
       <c r="H150" s="37"/>
     </row>
-    <row r="151" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A151" s="37"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -16397,7 +16362,7 @@
       <c r="G151" s="37"/>
       <c r="H151" s="37"/>
     </row>
-    <row r="152" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A152" s="37"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -16407,7 +16372,7 @@
       <c r="G152" s="37"/>
       <c r="H152" s="37"/>
     </row>
-    <row r="153" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" s="38" customFormat="1" ht="29" customHeight="1">
       <c r="A153" s="37"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -16417,7 +16382,7 @@
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
     </row>
-    <row r="154" spans="1:8" s="38" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="A154" s="37"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
@@ -16436,28 +16401,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="38" customWidth="1"/>
     <col min="8" max="8" width="21" style="38" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>283</v>
       </c>
@@ -16473,7 +16438,7 @@
       <c r="I1" s="100"/>
       <c r="J1" s="101"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
@@ -16505,7 +16470,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="36" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="85"/>
       <c r="B3" s="35"/>
       <c r="C3" s="86"/>
@@ -16517,7 +16482,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="36" customFormat="1">
       <c r="A4" s="85"/>
       <c r="B4" s="35"/>
       <c r="C4" s="86"/>
@@ -16529,7 +16494,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="36" customFormat="1">
       <c r="A5" s="87"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -16541,7 +16506,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="87"/>
     </row>
-    <row r="6" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="36" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -16553,7 +16518,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -16565,7 +16530,7 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="36" customFormat="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -16577,7 +16542,7 @@
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="36" customFormat="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -16589,7 +16554,7 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="36" customFormat="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -16601,7 +16566,7 @@
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="36" customFormat="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -16613,7 +16578,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="36" customFormat="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -16625,7 +16590,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="36" customFormat="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -16637,7 +16602,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="36" customFormat="1">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -16649,7 +16614,7 @@
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="36" customFormat="1">
       <c r="A15" s="89"/>
       <c r="I15" s="90"/>
       <c r="J15" s="89"/>
@@ -16665,29 +16630,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="38" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="38" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="38" customWidth="1"/>
     <col min="9" max="9" width="14" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="38" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="38" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="38" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>269</v>
       </c>
@@ -16705,7 +16670,7 @@
       <c r="K1" s="97"/>
       <c r="L1" s="98"/>
     </row>
-    <row r="2" spans="1:12" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="45" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -16743,7 +16708,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="36" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -16757,7 +16722,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="36" customFormat="1">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="34"/>
@@ -16771,7 +16736,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -16785,7 +16750,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="36" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -16799,7 +16764,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -16813,9 +16778,9 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="36" customFormat="1"/>
+    <row r="9" spans="1:12" s="36" customFormat="1"/>
+    <row r="10" spans="1:12" s="36" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
@@ -16827,40 +16792,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="38" customWidth="1"/>
     <col min="2" max="2" width="18" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="38" customWidth="1"/>
-    <col min="8" max="18" width="8.6640625" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="38"/>
+    <col min="3" max="3" width="9.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1796875" style="38" customWidth="1"/>
+    <col min="8" max="18" width="8.6328125" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="8.6328125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="221" customHeight="1">
       <c r="A1" s="96" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
       <c r="E1" s="97"/>
       <c r="F1" s="96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G1" s="97"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
@@ -16883,7 +16848,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="36" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -16892,7 +16857,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -16901,7 +16866,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -16910,7 +16875,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" s="36" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="36" customFormat="1" ht="77" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -16919,7 +16884,7 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
     </row>
-    <row r="7" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="36" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -16928,7 +16893,7 @@
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="36" customFormat="1" ht="94.5" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -16937,7 +16902,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
     </row>
-    <row r="9" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="36" customFormat="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -16946,7 +16911,7 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="36" customFormat="1">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -16955,7 +16920,7 @@
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -16964,7 +16929,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -16973,7 +16938,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -16982,7 +16947,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -16991,7 +16956,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -17000,7 +16965,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -17009,7 +16974,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -17018,7 +16983,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -17027,7 +16992,7 @@
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -17036,7 +17001,7 @@
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -17045,7 +17010,7 @@
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -17054,7 +17019,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -17063,7 +17028,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -17072,7 +17037,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -17081,7 +17046,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -17090,7 +17055,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -17099,7 +17064,7 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -17108,7 +17073,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -17117,7 +17082,7 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -17126,7 +17091,7 @@
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -17146,28 +17111,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="38" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="38"/>
+    <col min="1" max="1" width="32.1796875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="38" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="45" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="45" customFormat="1" ht="121.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>253</v>
       </c>
       <c r="B1" s="101"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -17175,25 +17140,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="39"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="39"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -17211,26 +17176,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>260</v>
       </c>
@@ -17242,7 +17207,7 @@
       <c r="G1" s="95"/>
       <c r="H1" s="95"/>
     </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -17268,7 +17233,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="36" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -17278,7 +17243,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="36" customFormat="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -17288,7 +17253,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
     </row>
-    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="36" customFormat="1">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -17298,7 +17263,7 @@
       <c r="G5" s="34"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="36" customFormat="1">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -17308,7 +17273,7 @@
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="36" customFormat="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
